--- a/data/hotels_by_city/Dallas/Dallas_shard_695.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_695.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1728 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r557972149-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>320560</t>
+  </si>
+  <si>
+    <t>557972149</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>So much traffic noise!</t>
+  </si>
+  <si>
+    <t>Our room was 4 stories above the highway and we heard the traffic all night long.  It was terrible.  The hotel was very full, so switching rooms was not an option.  The breakfast did not look very appetizing in the morning.  The only bright spot was Shayna at the front desk!  She was very friendly!  We'll never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Our room was 4 stories above the highway and we heard the traffic all night long.  It was terrible.  The hotel was very full, so switching rooms was not an option.  The breakfast did not look very appetizing in the morning.  The only bright spot was Shayna at the front desk!  She was very friendly!  We'll never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r535054299-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>535054299</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Everything But Waffles</t>
+  </si>
+  <si>
+    <t>I had to be in Ft Worth to take a class that was located nearby. SpringHill Suites turned out to be a great hotel for our overnight stay. The Mr and I enjoyed a comfortable night’s sleep, a tasty breakfast (even without waffles), and fabulous hospitality from the front of the house. While I was in class he was granted a late (2:00) checkout. This was extremely helpful.  There were plenty of restaurants for our dining pleasure located in the vicinity. We’d stay here again!Pros: Location, comfortable stay, great staff, tasty breakfast, and FREE parking!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r525749213-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>525749213</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Solid Business Hotel</t>
+  </si>
+  <si>
+    <t>I recently spent 3 nights at this hotel for a business trip arriving Sunday night and departing on Wednesday.  First off this hotel can be hard to find the first time.  The address on Lovell is really just off and Lovell is a one way street.  Technically the hotel is at the intersection of Locke and Pulido street.  Put that in your GPS and its easy to get to.  The parking lot out front is very small, easy to fill it up, but they have a partial garage next door that they use as well.  
+I had checked in on-line which makes it easy.  The lady at the desk was quick and courteous.  Now instead of having some water or fruit available like I see at some hotels they had a bowel of lollipops.  A big bowel of big lollipops.  Strange but ok.  I liked the fact that one elevator was always down and open on the first floor. Why don't more places do this?  You walk right into the elevator and go.  The pool area is actually quite nice for a hotel this size.  The fitness center was nice, but just had enough room for a couple of treadmills, a single elliptical and some dumb bells.  Nothing impressive.  
+Overall the room was nice, kind of the standard Springhill design where the doors are angled into the room or triangled.  The area in front of the desk was not open...I recently spent 3 nights at this hotel for a business trip arriving Sunday night and departing on Wednesday.  First off this hotel can be hard to find the first time.  The address on Lovell is really just off and Lovell is a one way street.  Technically the hotel is at the intersection of Locke and Pulido street.  Put that in your GPS and its easy to get to.  The parking lot out front is very small, easy to fill it up, but they have a partial garage next door that they use as well.  I had checked in on-line which makes it easy.  The lady at the desk was quick and courteous.  Now instead of having some water or fruit available like I see at some hotels they had a bowel of lollipops.  A big bowel of big lollipops.  Strange but ok.  I liked the fact that one elevator was always down and open on the first floor. Why don't more places do this?  You walk right into the elevator and go.  The pool area is actually quite nice for a hotel this size.  The fitness center was nice, but just had enough room for a couple of treadmills, a single elliptical and some dumb bells.  Nothing impressive.  Overall the room was nice, kind of the standard Springhill design where the doors are angled into the room or triangled.  The area in front of the desk was not open like I've seen some rooms and the cabinet over the wet bar sink was really low almost blocking the sink.  Overall room was nice, no major maintenance issues.  I really didn't notice much about the hotel in general that was needing to be updated/fixed/etc.  Housekeeping was overall good.  The first day I returned and my room had been cleaned from top to bottom.  Everything was put back in its place, including my toothbrush.  The second day housekeeping just basically showed up and made the bed.  The bed was good, my room was on the parking lot side so noise from the freeway was not an issue.  Breakfast was actually very good.  It was the standard breakfast fare and only changed slightly each day but everything was done well.  Waffles were the only things missing but they did have fruit, yogurt, oatmeal, scrambed eggs (very well done each day) a bacon or sausage, biscuits and different pastries.  I did not get the ladies name who managed the breakfast area but she was very nice and very helpful each day.  Excellent customer service skills.  I do wish that they had a second trash can towards the front door, that would help the flow of people.  I like the overall location of this hotel.  Its a short drive to many different areas of Forth Worth.  There is a mexican restaurant right across the street.  Overall the hotel met my expectations, it didn't wow me but I would not hesitate to return here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I recently spent 3 nights at this hotel for a business trip arriving Sunday night and departing on Wednesday.  First off this hotel can be hard to find the first time.  The address on Lovell is really just off and Lovell is a one way street.  Technically the hotel is at the intersection of Locke and Pulido street.  Put that in your GPS and its easy to get to.  The parking lot out front is very small, easy to fill it up, but they have a partial garage next door that they use as well.  
+I had checked in on-line which makes it easy.  The lady at the desk was quick and courteous.  Now instead of having some water or fruit available like I see at some hotels they had a bowel of lollipops.  A big bowel of big lollipops.  Strange but ok.  I liked the fact that one elevator was always down and open on the first floor. Why don't more places do this?  You walk right into the elevator and go.  The pool area is actually quite nice for a hotel this size.  The fitness center was nice, but just had enough room for a couple of treadmills, a single elliptical and some dumb bells.  Nothing impressive.  
+Overall the room was nice, kind of the standard Springhill design where the doors are angled into the room or triangled.  The area in front of the desk was not open...I recently spent 3 nights at this hotel for a business trip arriving Sunday night and departing on Wednesday.  First off this hotel can be hard to find the first time.  The address on Lovell is really just off and Lovell is a one way street.  Technically the hotel is at the intersection of Locke and Pulido street.  Put that in your GPS and its easy to get to.  The parking lot out front is very small, easy to fill it up, but they have a partial garage next door that they use as well.  I had checked in on-line which makes it easy.  The lady at the desk was quick and courteous.  Now instead of having some water or fruit available like I see at some hotels they had a bowel of lollipops.  A big bowel of big lollipops.  Strange but ok.  I liked the fact that one elevator was always down and open on the first floor. Why don't more places do this?  You walk right into the elevator and go.  The pool area is actually quite nice for a hotel this size.  The fitness center was nice, but just had enough room for a couple of treadmills, a single elliptical and some dumb bells.  Nothing impressive.  Overall the room was nice, kind of the standard Springhill design where the doors are angled into the room or triangled.  The area in front of the desk was not open like I've seen some rooms and the cabinet over the wet bar sink was really low almost blocking the sink.  Overall room was nice, no major maintenance issues.  I really didn't notice much about the hotel in general that was needing to be updated/fixed/etc.  Housekeeping was overall good.  The first day I returned and my room had been cleaned from top to bottom.  Everything was put back in its place, including my toothbrush.  The second day housekeeping just basically showed up and made the bed.  The bed was good, my room was on the parking lot side so noise from the freeway was not an issue.  Breakfast was actually very good.  It was the standard breakfast fare and only changed slightly each day but everything was done well.  Waffles were the only things missing but they did have fruit, yogurt, oatmeal, scrambed eggs (very well done each day) a bacon or sausage, biscuits and different pastries.  I did not get the ladies name who managed the breakfast area but she was very nice and very helpful each day.  Excellent customer service skills.  I do wish that they had a second trash can towards the front door, that would help the flow of people.  I like the overall location of this hotel.  Its a short drive to many different areas of Forth Worth.  There is a mexican restaurant right across the street.  Overall the hotel met my expectations, it didn't wow me but I would not hesitate to return here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r511124226-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>511124226</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>New, modern hotel</t>
+  </si>
+  <si>
+    <t>I liked this hotel, it is new, modern, clean and it looks well maintained. The plus at this hotel is the fact that you can use their smart tv to connect to internet and applications like youtube, netflix and other.The con: breakfast, very ordinary and their service when they have to announce the check out time. We got a lady who rudely knocked at the door just before noon in spite the fact that as an elite member I had already made arrangements that I would leave at 3:00pm. Hotel should use more civilized methods like calling the client over the phone...</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r508261466-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>508261466</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Hard to Beat the Location - Hotel Needs to be Refreshed</t>
+  </si>
+  <si>
+    <t>Let me start by saying we really like the Springhill Suites brand and that is one of the reasons we chose to stay there for 4 nights..  We chose this one because of it's proximity to things we wanted to visit - museums, zoo, botanical garden, downtown, restaurants.  For the most part it is a clean facility, but it looks like one of the original designs.  The wallpaper is a little worn and it can use a refresh.  My main complaints are fairly large ones.  First of all, the mattress in our room was horrible.  A large indentation in the bed and it hurt my back. Everytime we turned in the bed the squeak would wake us up.  Anytime I can't get a good night's sleep in a hotel that's a "mortal sin!"  The second complaint has to do with the breakfast area.  It is very small for the size of this 4 story hotel.  To make matters worse they filled the small area with heavy wooden tables, multiple community tables and the business computers. It was hard to move around in the room when it was crowded with guests.All of the workers here were nice &amp; courteous, so this is no knock on them.  The pricing is reasonable especially when you consider what a great location this is.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Let me start by saying we really like the Springhill Suites brand and that is one of the reasons we chose to stay there for 4 nights..  We chose this one because of it's proximity to things we wanted to visit - museums, zoo, botanical garden, downtown, restaurants.  For the most part it is a clean facility, but it looks like one of the original designs.  The wallpaper is a little worn and it can use a refresh.  My main complaints are fairly large ones.  First of all, the mattress in our room was horrible.  A large indentation in the bed and it hurt my back. Everytime we turned in the bed the squeak would wake us up.  Anytime I can't get a good night's sleep in a hotel that's a "mortal sin!"  The second complaint has to do with the breakfast area.  It is very small for the size of this 4 story hotel.  To make matters worse they filled the small area with heavy wooden tables, multiple community tables and the business computers. It was hard to move around in the room when it was crowded with guests.All of the workers here were nice &amp; courteous, so this is no knock on them.  The pricing is reasonable especially when you consider what a great location this is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r503820417-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>503820417</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Accomodations.</t>
+  </si>
+  <si>
+    <t>This SpringHill Suites hotel was an excellent choice for our family.  Very clean, great beds, and extremely nice staff. It is in a good area with shops and restaurants in close proximity on University.  I agree with another review, stop at Eatzi's.  Rooms were large enough for our family of four to have a little 'space'.  Breakfast was fine, typical food offerings, very willing to please hostesses. Free wifi, worked fine. All in all, great stay!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r490411451-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>490411451</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Perfect stay - only place I will stay in the future!</t>
+  </si>
+  <si>
+    <t>This hotel has everything it takes in my book: it's clean, friendly, quiet, and the beds are perfect!  I rarely rate a hotel 5 stars - but this was a no brainer.  Every single worker was as friendly as could be.  The hotel room was perfectly clean to the point where I was fine if the kids left things on the floor (usually I don't let anything except shoes be on the floor!). And the bed was so comfy - felt luxurious to me.  We were at the end of a hallway (I always recommend this for anyone!) so away from the elevator and ice/vending. The best hotel I can remember staying at in a long, long time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa R, Guest Relations Manager at SpringHill Suites, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has everything it takes in my book: it's clean, friendly, quiet, and the beds are perfect!  I rarely rate a hotel 5 stars - but this was a no brainer.  Every single worker was as friendly as could be.  The hotel room was perfectly clean to the point where I was fine if the kids left things on the floor (usually I don't let anything except shoes be on the floor!). And the bed was so comfy - felt luxurious to me.  We were at the end of a hallway (I always recommend this for anyone!) so away from the elevator and ice/vending. The best hotel I can remember staying at in a long, long time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r486635796-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>486635796</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Delivers as promised</t>
+  </si>
+  <si>
+    <t>If you have been to this brand before, it delivers all as promised. The staff is good, the check-in was fast and effortless, I got all my benefits as promised, check-out was great, etc. As mentioned by others, it is a bit loud as it is close to main roads/highways and a bit awkward to find. You can see from the interstate but getting to it the first time is a bit strange due to some one-way roads, after that, no problem. If you are using this hotel for TCU type of stuff, then it is a great location for both the school and if you want to go downtown to the revised area. The downtown was no more than 7-10 minutes away and TCU was 5 minutes. Alll facilities were neat and clean so no problems. Breakfast was standard.and couuld use a bit of updating. The price was quite high for this property but I think that was due to graduation as it wasn't that high for other dates, hwever, due to its location, i was fine with the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>If you have been to this brand before, it delivers all as promised. The staff is good, the check-in was fast and effortless, I got all my benefits as promised, check-out was great, etc. As mentioned by others, it is a bit loud as it is close to main roads/highways and a bit awkward to find. You can see from the interstate but getting to it the first time is a bit strange due to some one-way roads, after that, no problem. If you are using this hotel for TCU type of stuff, then it is a great location for both the school and if you want to go downtown to the revised area. The downtown was no more than 7-10 minutes away and TCU was 5 minutes. Alll facilities were neat and clean so no problems. Breakfast was standard.and couuld use a bit of updating. The price was quite high for this property but I think that was due to graduation as it wasn't that high for other dates, hwever, due to its location, i was fine with the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r485453114-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>485453114</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Nice and convenient</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean. The access is a little tough from the road, but it is quiet and convenient to all places downtown.There are restaurants just down the street that range from fast food to fine dining.Great for a quick business trip to Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean. The access is a little tough from the road, but it is quiet and convenient to all places downtown.There are restaurants just down the street that range from fast food to fine dining.Great for a quick business trip to Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r479473613-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>479473613</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Mixed Feelings - not terrible, not great</t>
+  </si>
+  <si>
+    <t>The check-in got me off on the wrong foot and set the tone.  I don't want to sound like a Prima Donna, but I do expect the person checking me in to be friendly, courteous, and be a step above someone checking me in at a Motel 6.  I stepped up to the counter and indicated that I had checked in online earlier and gave the gentleman my last name.  His response was "ID and last 4 of your credit card".  I gave him what he requested and he handed me my key.  There was no "thanks for being a Gold Elite member" or "would you care for a complimentary bottled water" or "let me check to see if I can get you a room upgrade" or "breakfast is in the lobby at 6:00" or ANYTHING at all.  Just "here's your key".  I even had to ask where to park my car.  The lady at the desk in the morning when I went down for breakfast seemed much friendlier and greeted me with a smile, as did the nice lady serving breakfast.  The guy from the afternoon before may not have gone to the same training.
+The room itself was typical SpringHill Suites - large, comfortable, clean, and relatively updated.  There was free wifi and the bed was relatively comfortable.  Good water pressure in the shower, and the breakfast was decent. 
+ There are only a handful of parking spots in...The check-in got me off on the wrong foot and set the tone.  I don't want to sound like a Prima Donna, but I do expect the person checking me in to be friendly, courteous, and be a step above someone checking me in at a Motel 6.  I stepped up to the counter and indicated that I had checked in online earlier and gave the gentleman my last name.  His response was "ID and last 4 of your credit card".  I gave him what he requested and he handed me my key.  There was no "thanks for being a Gold Elite member" or "would you care for a complimentary bottled water" or "let me check to see if I can get you a room upgrade" or "breakfast is in the lobby at 6:00" or ANYTHING at all.  Just "here's your key".  I even had to ask where to park my car.  The lady at the desk in the morning when I went down for breakfast seemed much friendlier and greeted me with a smile, as did the nice lady serving breakfast.  The guy from the afternoon before may not have gone to the same training.The room itself was typical SpringHill Suites - large, comfortable, clean, and relatively updated.  There was free wifi and the bed was relatively comfortable.  Good water pressure in the shower, and the breakfast was decent.  There are only a handful of parking spots in the parking lot in front of the hotel, but there is free parking in a small parking garage next to the hotel, though it's a short walk.  I didn't get a chance to explore the area much but it seems OK and I didn't feel unsafe in any way.In summary, I might consider trying this location again someday, but not before checking other alternatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>The check-in got me off on the wrong foot and set the tone.  I don't want to sound like a Prima Donna, but I do expect the person checking me in to be friendly, courteous, and be a step above someone checking me in at a Motel 6.  I stepped up to the counter and indicated that I had checked in online earlier and gave the gentleman my last name.  His response was "ID and last 4 of your credit card".  I gave him what he requested and he handed me my key.  There was no "thanks for being a Gold Elite member" or "would you care for a complimentary bottled water" or "let me check to see if I can get you a room upgrade" or "breakfast is in the lobby at 6:00" or ANYTHING at all.  Just "here's your key".  I even had to ask where to park my car.  The lady at the desk in the morning when I went down for breakfast seemed much friendlier and greeted me with a smile, as did the nice lady serving breakfast.  The guy from the afternoon before may not have gone to the same training.
+The room itself was typical SpringHill Suites - large, comfortable, clean, and relatively updated.  There was free wifi and the bed was relatively comfortable.  Good water pressure in the shower, and the breakfast was decent. 
+ There are only a handful of parking spots in...The check-in got me off on the wrong foot and set the tone.  I don't want to sound like a Prima Donna, but I do expect the person checking me in to be friendly, courteous, and be a step above someone checking me in at a Motel 6.  I stepped up to the counter and indicated that I had checked in online earlier and gave the gentleman my last name.  His response was "ID and last 4 of your credit card".  I gave him what he requested and he handed me my key.  There was no "thanks for being a Gold Elite member" or "would you care for a complimentary bottled water" or "let me check to see if I can get you a room upgrade" or "breakfast is in the lobby at 6:00" or ANYTHING at all.  Just "here's your key".  I even had to ask where to park my car.  The lady at the desk in the morning when I went down for breakfast seemed much friendlier and greeted me with a smile, as did the nice lady serving breakfast.  The guy from the afternoon before may not have gone to the same training.The room itself was typical SpringHill Suites - large, comfortable, clean, and relatively updated.  There was free wifi and the bed was relatively comfortable.  Good water pressure in the shower, and the breakfast was decent.  There are only a handful of parking spots in the parking lot in front of the hotel, but there is free parking in a small parking garage next to the hotel, though it's a short walk.  I didn't get a chance to explore the area much but it seems OK and I didn't feel unsafe in any way.In summary, I might consider trying this location again someday, but not before checking other alternatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r477845155-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>477845155</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Delightful</t>
+  </si>
+  <si>
+    <t>I  arrived at the spring hill suites and the staff was very pleasant.  The hotel was very clean. There was a mini fridge and microwave which was very nice for our family trip. The breakfast was very yummy several choices. The hotel was very convenient lots of shopping and food close by. the pool was very clean is outside. The Jacuzzi was very nice to which is also outside, the workout room was very clean The ambiance was very family oriented.    We enjoyed are stay very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>I  arrived at the spring hill suites and the staff was very pleasant.  The hotel was very clean. There was a mini fridge and microwave which was very nice for our family trip. The breakfast was very yummy several choices. The hotel was very convenient lots of shopping and food close by. the pool was very clean is outside. The Jacuzzi was very nice to which is also outside, the workout room was very clean The ambiance was very family oriented.    We enjoyed are stay very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r477834719-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>477834719</t>
+  </si>
+  <si>
+    <t>Room change</t>
+  </si>
+  <si>
+    <t>Smells like smoke in the entrance. Some sort of bug in the bed. Blood stain on comforter. Dust. Stains/spills in the fridge. Lacks attention to detail. The maintenance person that came to the room to check the comforter was not happy to be there and not professional at all. He handed us the key cards to a new room, walked in,  pulled the comforter up, looked at it while rubbing the stain then took the comforter with him. Breakfast is the usual. Pool is small. Jacuzzi is OK. It does not get very warm. The enterance, if coming from the Vickery road side, is confusing. You must go past the enterance that is posted on the wall. Looks like you're passing the hotel. Small parking lot but you may park in the garage for free. UNFORTUNATELY TRIP ADVISOR APP WON'T ALLOW ME TO POST ANY PICS! Maybe a good thing considering they're all gross. MoreShow less</t>
+  </si>
+  <si>
+    <t>Smells like smoke in the entrance. Some sort of bug in the bed. Blood stain on comforter. Dust. Stains/spills in the fridge. Lacks attention to detail. The maintenance person that came to the room to check the comforter was not happy to be there and not professional at all. He handed us the key cards to a new room, walked in,  pulled the comforter up, looked at it while rubbing the stain then took the comforter with him. Breakfast is the usual. Pool is small. Jacuzzi is OK. It does not get very warm. The enterance, if coming from the Vickery road side, is confusing. You must go past the enterance that is posted on the wall. Looks like you're passing the hotel. Small parking lot but you may park in the garage for free. UNFORTUNATELY TRIP ADVISOR APP WON'T ALLOW ME TO POST ANY PICS! Maybe a good thing considering they're all gross. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r470046105-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>470046105</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>This was a good choice for our spring break. We met our son's family to spend some time together. The hotel was good and affordable. Breakfast was pretty standard but ok. Everything seemed pretty clean. The ladies at the front desk were very friendly. The best part was the location. We took the littles to the Stockyard and the Zoo and the hotel was close to both.   Overall, our trip was a huge success and the hotel met our needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>This was a good choice for our spring break. We met our son's family to spend some time together. The hotel was good and affordable. Breakfast was pretty standard but ok. Everything seemed pretty clean. The ladies at the front desk were very friendly. The best part was the location. We took the littles to the Stockyard and the Zoo and the hotel was close to both.   Overall, our trip was a huge success and the hotel met our needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r466179794-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>466179794</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There has to be better options </t>
+  </si>
+  <si>
+    <t>I called ahead, saying we were a family of three and would be using the pullout - they said that the linen would be in the closet but we would have to make the bed, fine, but of course there were no sheets - only a blanket and a pillow.  This was an inconvenience but the real problem were the bugs in the bathroom (the light fixture was full of black bugs) and then to top it off there were hairs on the supposedly clean towels. We will find an alternative next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>I called ahead, saying we were a family of three and would be using the pullout - they said that the linen would be in the closet but we would have to make the bed, fine, but of course there were no sheets - only a blanket and a pillow.  This was an inconvenience but the real problem were the bugs in the bathroom (the light fixture was full of black bugs) and then to top it off there were hairs on the supposedly clean towels. We will find an alternative next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r455103087-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>455103087</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Reasonable Value</t>
+  </si>
+  <si>
+    <t>The hotel is somewhat dated but that should be expected at this price point. I spent a week here and the breakfast menu doesn't change so prepare to get bored with that. The staff is excellent and very helpful. I have found that I can take two options: Rent a luxury hotel and go out less because the amenities pull you in or rent this type of hotel and be "encouraged" to go out more.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is somewhat dated but that should be expected at this price point. I spent a week here and the breakfast menu doesn't change so prepare to get bored with that. The staff is excellent and very helpful. I have found that I can take two options: Rent a luxury hotel and go out less because the amenities pull you in or rent this type of hotel and be "encouraged" to go out more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r433727036-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>433727036</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Decent stay, but nothing spectacular</t>
+  </si>
+  <si>
+    <t>Stayed here one night last weekend while attending some parties in Fort Worth. The property is nice enough, but in a strange, not easy to get to location. The beds were a bit worn and squeaky, and the pillows were not very firm. The bathroom ammenities were limited (just soap, shampoo and conditioner...no body lotion or other items). Breakfast was very limited..eggs (or some egg-like substance), turkey Canadian bacon, waffles, cereal and some breads. Doubtful I'll stay here again next time when in Fort Worth. Just prefer a more comfortable hotel with more ammenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here one night last weekend while attending some parties in Fort Worth. The property is nice enough, but in a strange, not easy to get to location. The beds were a bit worn and squeaky, and the pillows were not very firm. The bathroom ammenities were limited (just soap, shampoo and conditioner...no body lotion or other items). Breakfast was very limited..eggs (or some egg-like substance), turkey Canadian bacon, waffles, cereal and some breads. Doubtful I'll stay here again next time when in Fort Worth. Just prefer a more comfortable hotel with more ammenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r431957986-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>431957986</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>comfortable and quiet stay</t>
+  </si>
+  <si>
+    <t>the hotel is clean from the parking to the inside. Parking is easy and with many spaces.  Hotel lobby is spaceous, as is the breakfast area.  Front desk staff are helpful and friendly.  Room is clean and comfortable.  Breakfast is included and is in good quality.  Kitchen staff are nice.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r431571086-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>431571086</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>A mixed bag</t>
+  </si>
+  <si>
+    <t>The good: clean, close to TCU, easy to find, no train noise that has been reported at other nearby hotels
+The bad: we asked for a room on the top floor to avoid freeway traffic noise. When we checked in on the 4th floor, we noticed a regular rumbling sound but couldn't identify where it came from. Went out to dinner, came back, noise a little louder. Went to sleep, awoke about 11 pm with very loud rumbling sound apparently coming from the roof. Called the front desk, who told us they couldn't hear it. Explained that they couldn't her it because they were on the first floor while we were on the 4th (not too difficult to figure out). After 3 calls they sent someone up, and by that time the sound was not only evident in our room but in the hallway. Apparently we were the only ones on that wing. Maintenance said "yep that's pretty bad but we're not going up on the roof this time of night."
+Their solution: we were able to leave our things in the original room while the hotel provided a suite on the second floor for us to sleep the rest of the night so we didn't have to lug our belongings to a new room in the middle of the night. The only problem with that was we were now just next to the freeway with the traffic noise we...The good: clean, close to TCU, easy to find, no train noise that has been reported at other nearby hotelsThe bad: we asked for a room on the top floor to avoid freeway traffic noise. When we checked in on the 4th floor, we noticed a regular rumbling sound but couldn't identify where it came from. Went out to dinner, came back, noise a little louder. Went to sleep, awoke about 11 pm with very loud rumbling sound apparently coming from the roof. Called the front desk, who told us they couldn't hear it. Explained that they couldn't her it because they were on the first floor while we were on the 4th (not too difficult to figure out). After 3 calls they sent someone up, and by that time the sound was not only evident in our room but in the hallway. Apparently we were the only ones on that wing. Maintenance said "yep that's pretty bad but we're not going up on the roof this time of night."Their solution: we were able to leave our things in the original room while the hotel provided a suite on the second floor for us to sleep the rest of the night so we didn't have to lug our belongings to a new room in the middle of the night. The only problem with that was we were now just next to the freeway with the traffic noise we were.trying to avoid. Not a restful night.Bottom line: we may try that hotel again, but will definitely make sure to report any issues at the beginning of our stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Keith  J, Manager at SpringHill Suites, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>The good: clean, close to TCU, easy to find, no train noise that has been reported at other nearby hotels
+The bad: we asked for a room on the top floor to avoid freeway traffic noise. When we checked in on the 4th floor, we noticed a regular rumbling sound but couldn't identify where it came from. Went out to dinner, came back, noise a little louder. Went to sleep, awoke about 11 pm with very loud rumbling sound apparently coming from the roof. Called the front desk, who told us they couldn't hear it. Explained that they couldn't her it because they were on the first floor while we were on the 4th (not too difficult to figure out). After 3 calls they sent someone up, and by that time the sound was not only evident in our room but in the hallway. Apparently we were the only ones on that wing. Maintenance said "yep that's pretty bad but we're not going up on the roof this time of night."
+Their solution: we were able to leave our things in the original room while the hotel provided a suite on the second floor for us to sleep the rest of the night so we didn't have to lug our belongings to a new room in the middle of the night. The only problem with that was we were now just next to the freeway with the traffic noise we...The good: clean, close to TCU, easy to find, no train noise that has been reported at other nearby hotelsThe bad: we asked for a room on the top floor to avoid freeway traffic noise. When we checked in on the 4th floor, we noticed a regular rumbling sound but couldn't identify where it came from. Went out to dinner, came back, noise a little louder. Went to sleep, awoke about 11 pm with very loud rumbling sound apparently coming from the roof. Called the front desk, who told us they couldn't hear it. Explained that they couldn't her it because they were on the first floor while we were on the 4th (not too difficult to figure out). After 3 calls they sent someone up, and by that time the sound was not only evident in our room but in the hallway. Apparently we were the only ones on that wing. Maintenance said "yep that's pretty bad but we're not going up on the roof this time of night."Their solution: we were able to leave our things in the original room while the hotel provided a suite on the second floor for us to sleep the rest of the night so we didn't have to lug our belongings to a new room in the middle of the night. The only problem with that was we were now just next to the freeway with the traffic noise we were.trying to avoid. Not a restful night.Bottom line: we may try that hotel again, but will definitely make sure to report any issues at the beginning of our stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r428847434-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>428847434</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Wedding Weekend</t>
+  </si>
+  <si>
+    <t>Nice, clean place. Bed was very nice. Overall, very clean. Breakfast during the week was wonderful, weekend, just ok. Why no bananas over the weekend? Would have liked the option of having an upper room away from all of the train noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Nice, clean place. Bed was very nice. Overall, very clean. Breakfast during the week was wonderful, weekend, just ok. Why no bananas over the weekend? Would have liked the option of having an upper room away from all of the train noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r423235820-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>423235820</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Nice place, convenient, nice staff</t>
+  </si>
+  <si>
+    <t>Stayed overnight on business, room was dark at night, and reasonably quiet. The towels were clean, and the soap/shampoo were nice. Breakfast in the morning was good, coffee not too bad. All in all, pretty good, worth the price paid.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r423007710-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>423007710</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights on a business trip. It's in a good location, near the highway but still quiet. The room was comfortable. The fitness center was decent and breakfast was good! All in all I was very pleased.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r413199057-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>413199057</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Good Spot for Business Stay</t>
+  </si>
+  <si>
+    <t>I had a one-night business stay here. Front desk worker was kind enough to offer me some restaurant recommendations, and I went with the BBQ place just up the street. It's a great location in that it's close to downtown, but not in the heart of it, and it has plenty of restaurants nearby. The hotel was exactly what I needed for business - even printed a few items on the printer before heading to a meeting in the morning. Breakfast was just okay, nothing exceptional. Rooms were well kept and spacious - as suites should be.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r413078188-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>413078188</t>
+  </si>
+  <si>
+    <t>Expectations met</t>
+  </si>
+  <si>
+    <t>It's what you expect and nothing disappointed me. It was nice they offered 3 newspapers too. The Fort Worth Telegram, the WSJ and USA Today were all free.The bed was comfortable. The room was quiet. The thermostat worked perfectly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r410720360-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>410720360</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Nice place. Staff are extremely helpful</t>
+  </si>
+  <si>
+    <t>Stayed over for a work trip. Nice friendly place. Wifi was free, staff couldn't do enough for you. Beds were comfortable and rooms were clean...can't ask for more than that really.Went to the Woodshed smokehouse on Sunday night - great music, food was plentiful and service was spot on. Highly recommended hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r384663871-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>384663871</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Overall disappointed</t>
+  </si>
+  <si>
+    <t>Normally when I travel in Ft Worth, we stay in the downtown area which I like very much.  Because I needed to be closer to TCU I picked this hotel - I thought it had better reviews than the closer Marriott properties.  I have never had an issue in FW before so I did not think too much about where I stayed.  the cons:  the Wifi is so slow I ended up just draining my data, I didn't feel extremely safe traveling with all females, the rooms &amp; hallways kinda had a smell to them, and this was not a build from the ground up Springhill (I was hoping it was so the toilet and sink area would be separate from the shower area).  Also - I avoided other properties because reviews talked about the trains at night and I didn't see those reviews here.  Well..... I heard the trains.  On the positive side, the breakfast was better than most SS's and I did not encounter any customer service issues.  But I do not plan to stay here again.Downtown is 2 miles away so I might just play it safe next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Normally when I travel in Ft Worth, we stay in the downtown area which I like very much.  Because I needed to be closer to TCU I picked this hotel - I thought it had better reviews than the closer Marriott properties.  I have never had an issue in FW before so I did not think too much about where I stayed.  the cons:  the Wifi is so slow I ended up just draining my data, I didn't feel extremely safe traveling with all females, the rooms &amp; hallways kinda had a smell to them, and this was not a build from the ground up Springhill (I was hoping it was so the toilet and sink area would be separate from the shower area).  Also - I avoided other properties because reviews talked about the trains at night and I didn't see those reviews here.  Well..... I heard the trains.  On the positive side, the breakfast was better than most SS's and I did not encounter any customer service issues.  But I do not plan to stay here again.Downtown is 2 miles away so I might just play it safe next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r381045521-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>381045521</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Hot Hot Hot</t>
+  </si>
+  <si>
+    <t>The a/c did not work in the room. The clerk at front desk seemed to care less.  I had to ask for fans at 3 am.  Front desk clerk  finally sent female security guard to  check to make sure we were operating it properly but she did not bring any fans with her.   We had to wait for her to go look for fans but came back with only one.  She admitted that there was a vacant room we could move to but the clerk wouldn't move us because the room had a reservation.   It was THREE A.M. and no one was in the room.  My youngest daughter was so hot that she vomited.   We got three hours sleep and had a 15 hour day ahead of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>The a/c did not work in the room. The clerk at front desk seemed to care less.  I had to ask for fans at 3 am.  Front desk clerk  finally sent female security guard to  check to make sure we were operating it properly but she did not bring any fans with her.   We had to wait for her to go look for fans but came back with only one.  She admitted that there was a vacant room we could move to but the clerk wouldn't move us because the room had a reservation.   It was THREE A.M. and no one was in the room.  My youngest daughter was so hot that she vomited.   We got three hours sleep and had a 15 hour day ahead of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r379507267-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379507267</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>WARNING HIGH THEFT ALSO INCOMPETENT STAFF BAD AREA</t>
+  </si>
+  <si>
+    <t>stayed there as a "recommendation" from a horse show we were attending. We had stayed at this place a year ago, not to great and we didn't feel very safe. It's gone WAY DOWNHILL:
+francesa rediele who checked us in (while on the phone to her friend or someone she knew) booked us into a room that was already in use. So I go downstairs after waiting on a BROKEN elevator (didn't move) and she put us in another room that already had a guest as well.
+we moved to a new floor but the room didn't have any soap or shampoo. 
+the next day, we came back to the room around lunchtime to change. we were in the room for a little while, came back and found both rear windows SMASHED.
+I talked to the very clueless and mean women at the front desk who said "ITS NOT OUR FAULT, THERE ARE A LOT OF HOMELESS PEOPLE IN THE AREA AND WE HAVE SIGNS WARNING YOU AS THIS HAPPENS A LOT." I was with my young daughter who was visibly shaken and I asked her to get us out of the room and book us elsewhere. She said "it's past check out time so you will be charged" and we were billed. 
+I went to get our windows replaced. we came back to the hotel and francesca checked us out. I told her I refused to pay for a...stayed there as a "recommendation" from a horse show we were attending. We had stayed at this place a year ago, not to great and we didn't feel very safe. It's gone WAY DOWNHILL:francesa rediele who checked us in (while on the phone to her friend or someone she knew) booked us into a room that was already in use. So I go downstairs after waiting on a BROKEN elevator (didn't move) and she put us in another room that already had a guest as well.we moved to a new floor but the room didn't have any soap or shampoo. the next day, we came back to the room around lunchtime to change. we were in the room for a little while, came back and found both rear windows SMASHED.I talked to the very clueless and mean women at the front desk who said "ITS NOT OUR FAULT, THERE ARE A LOT OF HOMELESS PEOPLE IN THE AREA AND WE HAVE SIGNS WARNING YOU AS THIS HAPPENS A LOT." I was with my young daughter who was visibly shaken and I asked her to get us out of the room and book us elsewhere. She said "it's past check out time so you will be charged" and we were billed. I went to get our windows replaced. we came back to the hotel and francesca checked us out. I told her I refused to pay for a room in a hotel that i felt unsafe in. She refused to refund my money and handed me a card to call the manager "on monday". So I asked is there no one here that can refund me? she went off for 15 minutes, came back and said no. She said "her people" could not help me. I asked to speak to "her people" who was the event coordinator. Long story short, i did speak to her. she refunded (she said, lets see what me credit card says) my room for tonight.we went to the hilton garden which so far is steps ahead of that place.It's in an unsafe area and you pose the high probability of a break in. the rooms are old and tired and you don't !! want to be out and about at night around there.I am going to report this to marriott as well as any other site that cares. your hotel is a disgrace to the brandMoreShow less</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>stayed there as a "recommendation" from a horse show we were attending. We had stayed at this place a year ago, not to great and we didn't feel very safe. It's gone WAY DOWNHILL:
+francesa rediele who checked us in (while on the phone to her friend or someone she knew) booked us into a room that was already in use. So I go downstairs after waiting on a BROKEN elevator (didn't move) and she put us in another room that already had a guest as well.
+we moved to a new floor but the room didn't have any soap or shampoo. 
+the next day, we came back to the room around lunchtime to change. we were in the room for a little while, came back and found both rear windows SMASHED.
+I talked to the very clueless and mean women at the front desk who said "ITS NOT OUR FAULT, THERE ARE A LOT OF HOMELESS PEOPLE IN THE AREA AND WE HAVE SIGNS WARNING YOU AS THIS HAPPENS A LOT." I was with my young daughter who was visibly shaken and I asked her to get us out of the room and book us elsewhere. She said "it's past check out time so you will be charged" and we were billed. 
+I went to get our windows replaced. we came back to the hotel and francesca checked us out. I told her I refused to pay for a...stayed there as a "recommendation" from a horse show we were attending. We had stayed at this place a year ago, not to great and we didn't feel very safe. It's gone WAY DOWNHILL:francesa rediele who checked us in (while on the phone to her friend or someone she knew) booked us into a room that was already in use. So I go downstairs after waiting on a BROKEN elevator (didn't move) and she put us in another room that already had a guest as well.we moved to a new floor but the room didn't have any soap or shampoo. the next day, we came back to the room around lunchtime to change. we were in the room for a little while, came back and found both rear windows SMASHED.I talked to the very clueless and mean women at the front desk who said "ITS NOT OUR FAULT, THERE ARE A LOT OF HOMELESS PEOPLE IN THE AREA AND WE HAVE SIGNS WARNING YOU AS THIS HAPPENS A LOT." I was with my young daughter who was visibly shaken and I asked her to get us out of the room and book us elsewhere. She said "it's past check out time so you will be charged" and we were billed. I went to get our windows replaced. we came back to the hotel and francesca checked us out. I told her I refused to pay for a room in a hotel that i felt unsafe in. She refused to refund my money and handed me a card to call the manager "on monday". So I asked is there no one here that can refund me? she went off for 15 minutes, came back and said no. She said "her people" could not help me. I asked to speak to "her people" who was the event coordinator. Long story short, i did speak to her. she refunded (she said, lets see what me credit card says) my room for tonight.we went to the hilton garden which so far is steps ahead of that place.It's in an unsafe area and you pose the high probability of a break in. the rooms are old and tired and you don't !! want to be out and about at night around there.I am going to report this to marriott as well as any other site that cares. your hotel is a disgrace to the brandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r373873021-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>373873021</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Convenient, Clean Property near TCU</t>
+  </si>
+  <si>
+    <t>This was the 4th time i've stayed at this property in the past three years...Have always found it to be clean, convenient and friendly...Rooms are spacious and well appointed and the beds are comfortable...even though it's near interstate, noise has never been an issue...three good restaurants within walking distance...hot/cold complimentary breakfast available.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r373868008-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>373868008</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel a number of times and always have had good service. The rooms are clean, there is a small fitness center and pool. They serve the usual free breakfast in a nice dining area. I suggest getting a room that is not on the highway side of the hotel as you do hear the traffic, especially at night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r373060585-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>373060585</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We were here for the PSIA meet at TCU. We chose this hotel because of its close proximity to the University and good reviews. This is a great hotel. While there was noise from the highway, it was nothing that kept us awake at night. The breakfast was good. There was a good selection and was fresh. We had a king bed room. We noticed that the floor was not vacuumed well, and we alerted the front desk and it was taken care of. The linens on the bed were thin, but okay. Usual overly soft and flat pillows-but that is at every hotel. AC worked great! And it was quiet. We did not hear any noise in the halls or from the surrounding rooms. Shawntay was the front desk rep for the majority of our stay. She was wonderful!  Very sweet, took care of any requests we had (housekeeping issue). She has to be one of the nicest front desk reps we have ever met. Always greeted us with a smile, told us to have a great day, Etc. She really made our stay more enjoyable. Thank you!!! I would recommend this hotel and would definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We were here for the PSIA meet at TCU. We chose this hotel because of its close proximity to the University and good reviews. This is a great hotel. While there was noise from the highway, it was nothing that kept us awake at night. The breakfast was good. There was a good selection and was fresh. We had a king bed room. We noticed that the floor was not vacuumed well, and we alerted the front desk and it was taken care of. The linens on the bed were thin, but okay. Usual overly soft and flat pillows-but that is at every hotel. AC worked great! And it was quiet. We did not hear any noise in the halls or from the surrounding rooms. Shawntay was the front desk rep for the majority of our stay. She was wonderful!  Very sweet, took care of any requests we had (housekeeping issue). She has to be one of the nicest front desk reps we have ever met. Always greeted us with a smile, told us to have a great day, Etc. She really made our stay more enjoyable. Thank you!!! I would recommend this hotel and would definitely stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r361609377-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>361609377</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>A good place</t>
+  </si>
+  <si>
+    <t>Stayed here this past Friday and Saturday night.  The room was great!  It was clean, everything in good working order, spacious, and most important to me, quiet!  The window unit fan ran continuously, yet it was unobtrusive and the white noise masked any and all noise that may have been there.  It can be shut off but I left it running. That makes for good sleeping!  There are also plenty of soft pillows.  I found the bed firm, yet comfy.My only disappointment was breakfast.  The marketing group definitely oversells this.  It's in line with any other standard breakfast found in hotels, but not the awesome dish claimed by marketing.  The front desk staff was always professional and helpful.  I also felt secure and safe here, both inside and out.  I recommend this facility.  Happy travels folks.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stayed here this past Friday and Saturday night.  The room was great!  It was clean, everything in good working order, spacious, and most important to me, quiet!  The window unit fan ran continuously, yet it was unobtrusive and the white noise masked any and all noise that may have been there.  It can be shut off but I left it running. That makes for good sleeping!  There are also plenty of soft pillows.  I found the bed firm, yet comfy.My only disappointment was breakfast.  The marketing group definitely oversells this.  It's in line with any other standard breakfast found in hotels, but not the awesome dish claimed by marketing.  The front desk staff was always professional and helpful.  I also felt secure and safe here, both inside and out.  I recommend this facility.  Happy travels folks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r355158288-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>355158288</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, convenient to many sites!</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  Checking in was easy but once I got to my room it was very warm.  Housekeeping was just down the hall and she came to help me with the air unit.  She called the front desk to let them know the unit needed needed maintenance.  About 10 minutes later someone else showed up, checked the unit, and said they would move me to another room.  I was promptly given another room within 45 minutes of arriving.  My room was a king suite which was clean and the bed was so comfortable!  The bathroom was oddly shaped so the toilet was extremely close to the tub leaving only a small area to exit the shower right in front of the toilet.  The hotel is set back at an awkward intersection which I missed at first.  It does have a parking garage which was a plus.  Walking to shops off university was difficult as we had to walk under the underpass on a real small curbed area.  Overall my experience was good.  The staff was very friendly, attentive and professional.  I would recommend this hotel to anyone seeking a hotel in close proximity to the University, zoo, cultural district, stockyards, downtown and the Watt arena all of which we found were easily driven to from this hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Lisa R, Director of Sales at SpringHill Suites, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  Checking in was easy but once I got to my room it was very warm.  Housekeeping was just down the hall and she came to help me with the air unit.  She called the front desk to let them know the unit needed needed maintenance.  About 10 minutes later someone else showed up, checked the unit, and said they would move me to another room.  I was promptly given another room within 45 minutes of arriving.  My room was a king suite which was clean and the bed was so comfortable!  The bathroom was oddly shaped so the toilet was extremely close to the tub leaving only a small area to exit the shower right in front of the toilet.  The hotel is set back at an awkward intersection which I missed at first.  It does have a parking garage which was a plus.  Walking to shops off university was difficult as we had to walk under the underpass on a real small curbed area.  Overall my experience was good.  The staff was very friendly, attentive and professional.  I would recommend this hotel to anyone seeking a hotel in close proximity to the University, zoo, cultural district, stockyards, downtown and the Watt arena all of which we found were easily driven to from this hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r351718647-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>351718647</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Perfect Little Weekend Getaway</t>
+  </si>
+  <si>
+    <t>My stay at this Marriott property was great. I recent had 2 surgeries and needed a quiet comfortable place to relax and rest before returning to work. Isabelle made my check in time quick and to the point. My room was close to the elevator so I didn't have to walk far. My room was spacious and the kitchenette was very nice. THE BEST PART OF MY STAY WAS THE BED!! Very comfortable and big. It didn,t take me long to fall asleep. A small nap turned into a 5 hour Super power nap. Overall the hotel is clean, quiet, family friendly, conveniently located by the freeway, restaurants, gas stations, and shopping centers. I'll stay here over and over again!! Yes the bed was that great!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Lisa R, Guest Relations Manager at SpringHill Suites, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>My stay at this Marriott property was great. I recent had 2 surgeries and needed a quiet comfortable place to relax and rest before returning to work. Isabelle made my check in time quick and to the point. My room was close to the elevator so I didn't have to walk far. My room was spacious and the kitchenette was very nice. THE BEST PART OF MY STAY WAS THE BED!! Very comfortable and big. It didn,t take me long to fall asleep. A small nap turned into a 5 hour Super power nap. Overall the hotel is clean, quiet, family friendly, conveniently located by the freeway, restaurants, gas stations, and shopping centers. I'll stay here over and over again!! Yes the bed was that great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r346747472-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>346747472</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Very comfortable room and smooth checkin and checkout.  Front desk staff was very friendly.   It was clean and neat all over.Our stay was brief but we enjoyed the atmosphere.  We had stayed there before and had good experiences.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r342712475-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>342712475</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>ok hotel</t>
+  </si>
+  <si>
+    <t>stayed there a fews years ago while stock show was in town don't know what changed but just wasn't the same. one of the worst mattresses I've slept on. Breakfast was wasn't that good either everything had water in it eggs had water in pan, waffle maker had water in the cooker, ended up eating at jack in the box. overall wouldn't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>stayed there a fews years ago while stock show was in town don't know what changed but just wasn't the same. one of the worst mattresses I've slept on. Breakfast was wasn't that good either everything had water in it eggs had water in pan, waffle maker had water in the cooker, ended up eating at jack in the box. overall wouldn't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r333391894-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>333391894</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this location for three days while attending a conference downtown. It only took a few minutes to get there during rush hour traffic and I enjoyed every aspect of my stay. My room was facing the highway but I never heard any traffic noise inside the room. The staff was great and my room was cleaned daily. I felt the rate was comparable to other hotels as well. I will definitely stay there again if I visit Fort Worth.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r326322763-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>326322763</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent hospitality - excellent staff</t>
+  </si>
+  <si>
+    <t>I spent just one night at this hotel in October 2015 prior to my visit to the AAA Texas 500 NASCAR race.  Price was perfect, parking was free, and when booking, I felt the location would suit me perfectly.I arrived at 11.30am, but a room was available to me and I checked in.  Front desk (lady NASCAR fan, Shawntay) was amazing, and give me tips for visiting the city on the Saturday afternoon and ordered me a taxi which arrived promptly.  The hotel is not downtown, and a taxi is probably a good idea to get there as the walk would be best-part-of-an-hour.My room (430) was comfortable, spacious and everything worked.  Free coffee was provided, and the room has a refrigerator for milk, etc.Breakfast is included in the room rate and was plentiful, if a little basic.  I departed early on the Sunday for the race track (the race was an amazing experience).If my review has helped, please give me a "Helpful" vote - thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I spent just one night at this hotel in October 2015 prior to my visit to the AAA Texas 500 NASCAR race.  Price was perfect, parking was free, and when booking, I felt the location would suit me perfectly.I arrived at 11.30am, but a room was available to me and I checked in.  Front desk (lady NASCAR fan, Shawntay) was amazing, and give me tips for visiting the city on the Saturday afternoon and ordered me a taxi which arrived promptly.  The hotel is not downtown, and a taxi is probably a good idea to get there as the walk would be best-part-of-an-hour.My room (430) was comfortable, spacious and everything worked.  Free coffee was provided, and the room has a refrigerator for milk, etc.Breakfast is included in the room rate and was plentiful, if a little basic.  I departed early on the Sunday for the race track (the race was an amazing experience).If my review has helped, please give me a "Helpful" vote - thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r323756991-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>323756991</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>clean and convenient to TCU and downtown</t>
+  </si>
+  <si>
+    <t>A little hard to find but this hotel is clean and about half way between downtown and TCU.  We were on the first floor; the room had high ceilings, a king size bed and full size sofa sleeper.  Breakfast included.  Worth a repeat visit for business travelers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r321247192-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>321247192</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice staff, good room</t>
+  </si>
+  <si>
+    <t>I had fourth floor facing south, the hostess changed me from second floor north facing at my request. The room was in good shape except the sink drained a bit slow. AC was a wall unit and quieter than many I have had to have. I was there for two nights, mostly for sleeping and had a good sleep. The shower and toilette were in a room separate from the sink alcove which was off the end of the bed, a separate sitting/work room just as you came in the door with a microwave and a small refrigerator.  The elevator (two of them) runs very slow.
+Can not address the reservations since i went through the Government DTS website but Marriott Rewards did confirm I had the room and input my reward number for me.
+All the staff were friendly, all had a smile and a hello, the desk counter was very helpful since I had not been there for 10 years and things had changed in the area.
+The breakfast was average for the Springhill Suite line, but I did get a good breakfast and was happy with it. (Hot beverages, juice dispenser, scrambled eggs, sausage patties then ham slices, biscuits and gravey, breads, some basic fruit, yogurt, milk, hot and cold cereals.) 
+Parking is interesting - not enough around the hotel, however, you can park free in a parking structure across the parking lot with could be good...I had fourth floor facing south, the hostess changed me from second floor north facing at my request. The room was in good shape except the sink drained a bit slow. AC was a wall unit and quieter than many I have had to have. I was there for two nights, mostly for sleeping and had a good sleep. The shower and toilette were in a room separate from the sink alcove which was off the end of the bed, a separate sitting/work room just as you came in the door with a microwave and a small refrigerator.  The elevator (two of them) runs very slow.Can not address the reservations since i went through the Government DTS website but Marriott Rewards did confirm I had the room and input my reward number for me.All the staff were friendly, all had a smile and a hello, the desk counter was very helpful since I had not been there for 10 years and things had changed in the area.The breakfast was average for the Springhill Suite line, but I did get a good breakfast and was happy with it. (Hot beverages, juice dispenser, scrambled eggs, sausage patties then ham slices, biscuits and gravey, breads, some basic fruit, yogurt, milk, hot and cold cereals.) Parking is interesting - not enough around the hotel, however, you can park free in a parking structure across the parking lot with could be good for your car if a hail storm came through.The bad is that the new (to me) toll road has messed up the access in and out, but that can be worked around with with a bit of patience.Worth staying at if you are working/visiting in the south side of Fort Worth, the folks have pride in their place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa R, Director of Sales at SpringHill Suites, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>I had fourth floor facing south, the hostess changed me from second floor north facing at my request. The room was in good shape except the sink drained a bit slow. AC was a wall unit and quieter than many I have had to have. I was there for two nights, mostly for sleeping and had a good sleep. The shower and toilette were in a room separate from the sink alcove which was off the end of the bed, a separate sitting/work room just as you came in the door with a microwave and a small refrigerator.  The elevator (two of them) runs very slow.
+Can not address the reservations since i went through the Government DTS website but Marriott Rewards did confirm I had the room and input my reward number for me.
+All the staff were friendly, all had a smile and a hello, the desk counter was very helpful since I had not been there for 10 years and things had changed in the area.
+The breakfast was average for the Springhill Suite line, but I did get a good breakfast and was happy with it. (Hot beverages, juice dispenser, scrambled eggs, sausage patties then ham slices, biscuits and gravey, breads, some basic fruit, yogurt, milk, hot and cold cereals.) 
+Parking is interesting - not enough around the hotel, however, you can park free in a parking structure across the parking lot with could be good...I had fourth floor facing south, the hostess changed me from second floor north facing at my request. The room was in good shape except the sink drained a bit slow. AC was a wall unit and quieter than many I have had to have. I was there for two nights, mostly for sleeping and had a good sleep. The shower and toilette were in a room separate from the sink alcove which was off the end of the bed, a separate sitting/work room just as you came in the door with a microwave and a small refrigerator.  The elevator (two of them) runs very slow.Can not address the reservations since i went through the Government DTS website but Marriott Rewards did confirm I had the room and input my reward number for me.All the staff were friendly, all had a smile and a hello, the desk counter was very helpful since I had not been there for 10 years and things had changed in the area.The breakfast was average for the Springhill Suite line, but I did get a good breakfast and was happy with it. (Hot beverages, juice dispenser, scrambled eggs, sausage patties then ham slices, biscuits and gravey, breads, some basic fruit, yogurt, milk, hot and cold cereals.) Parking is interesting - not enough around the hotel, however, you can park free in a parking structure across the parking lot with could be good for your car if a hail storm came through.The bad is that the new (to me) toll road has messed up the access in and out, but that can be worked around with with a bit of patience.Worth staying at if you are working/visiting in the south side of Fort Worth, the folks have pride in their place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r308736938-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>308736938</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location good Price </t>
+  </si>
+  <si>
+    <t>This was really a big roomy suite!  I had a nice lay over.  Front desk was great!  Room was clean!  Comfortable bed with lots of pillows!  AC was working great very hot weather in Fort Worth 100 degrees on Sept. 8th.   They have a delivery service to lots of restaurants in area that will delivery just about anything you could want, which was fantastic!  Had a really mic steak diner in my room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Lisa R, Guest Relations Manager at SpringHill Suites, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>This was really a big roomy suite!  I had a nice lay over.  Front desk was great!  Room was clean!  Comfortable bed with lots of pillows!  AC was working great very hot weather in Fort Worth 100 degrees on Sept. 8th.   They have a delivery service to lots of restaurants in area that will delivery just about anything you could want, which was fantastic!  Had a really mic steak diner in my room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r296918091-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>296918091</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Interesting Week Long Stay</t>
+  </si>
+  <si>
+    <t>Overall good hotel. Rooms are spacious - love the seating and desk area and the fridge/kitchen area in the room. Very fair price! The boys loved the breakfast each morning. The pool was nice even though it was really small. It's not deeper than 5 feet but I don't know how to swim so that was ok for me. The kids loved it at night. The water fountain at the pool is broken so don't expect to get any water without bringing your own. So for the bad- a fire drill went off around 10:30pm one night. Everyone had to come out of their rooms and there wasn't good communication on what was happening and why. The power also went out one day. Therefore I got stuck in the parking garage. Good thing is it only lasted around 15-20 minutes. The hot water in the shower took a good while to get hot. I wasn't usually in a hurry so this was ok for me but if I had been this would have been an issue. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Overall good hotel. Rooms are spacious - love the seating and desk area and the fridge/kitchen area in the room. Very fair price! The boys loved the breakfast each morning. The pool was nice even though it was really small. It's not deeper than 5 feet but I don't know how to swim so that was ok for me. The kids loved it at night. The water fountain at the pool is broken so don't expect to get any water without bringing your own. So for the bad- a fire drill went off around 10:30pm one night. Everyone had to come out of their rooms and there wasn't good communication on what was happening and why. The power also went out one day. Therefore I got stuck in the parking garage. Good thing is it only lasted around 15-20 minutes. The hot water in the shower took a good while to get hot. I wasn't usually in a hurry so this was ok for me but if I had been this would have been an issue. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r290925207-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>290925207</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>No Wifi for 3 days-Frig wouldn't get Cold-Pool Closed for Electrical Problems-</t>
+  </si>
+  <si>
+    <t>Maintenance switched out the frig 3 times. My child got sick with a virus while staying here and I contacted the front desk at 4am and asked them to please send someone to clean the room when the maid services came in. I called 4 more times the following day to say I needed to take my child to an urgent care facility but wanted to be in the room when they came to clean. Finally at 3pm they sent someone. They also let me know that 4 other people at the hotel had been sick with a virus and one lady went to the ER. First night here the Wifi wouldn't work. I call the front desk the following morning to say I need to work and couldn't connect. Two hours later a person from the Internet provider called me and walked me through the issue and assured me it would be working fine until I checked out. The following morning...no Internet... I go to the front desk and tell them..they hand me a print out saying the wifi was down in this zip code. NO ETA. Day 2 they say the Provider is working on it. Day 3 I tell them I need to work and need to know when it will be fixed...the front desk said a tech in coming out and they will call me when it's fixed. They tell me I will be receiving 3000...Maintenance switched out the frig 3 times. My child got sick with a virus while staying here and I contacted the front desk at 4am and asked them to please send someone to clean the room when the maid services came in. I called 4 more times the following day to say I needed to take my child to an urgent care facility but wanted to be in the room when they came to clean. Finally at 3pm they sent someone. They also let me know that 4 other people at the hotel had been sick with a virus and one lady went to the ER. First night here the Wifi wouldn't work. I call the front desk the following morning to say I need to work and couldn't connect. Two hours later a person from the Internet provider called me and walked me through the issue and assured me it would be working fine until I checked out. The following morning...no Internet... I go to the front desk and tell them..they hand me a print out saying the wifi was down in this zip code. NO ETA. Day 2 they say the Provider is working on it. Day 3 I tell them I need to work and need to know when it will be fixed...the front desk said a tech in coming out and they will call me when it's fixed. They tell me I will be receiving 3000 reward points for the inconvenience. Then offer to send me to a nearby hotel to use the Lobby Wifi so that I'm able to work. Seriously I thought the Internet was down in the whole ZIP CODE!!?? Did Laundry one night while staying and the machines did not even get the dirt off the clothes. The last night we went to the pool I called the Front Desk to tell them it was dark and none of the pool lights were on. They tell me an engineer will be there to check on it in few mins. 30 mins later the same guy they came to fix my frig time and time again showed up. After an hour the "Engineer" said everyone would need to get out because they were closing the pool due to electrical problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Maintenance switched out the frig 3 times. My child got sick with a virus while staying here and I contacted the front desk at 4am and asked them to please send someone to clean the room when the maid services came in. I called 4 more times the following day to say I needed to take my child to an urgent care facility but wanted to be in the room when they came to clean. Finally at 3pm they sent someone. They also let me know that 4 other people at the hotel had been sick with a virus and one lady went to the ER. First night here the Wifi wouldn't work. I call the front desk the following morning to say I need to work and couldn't connect. Two hours later a person from the Internet provider called me and walked me through the issue and assured me it would be working fine until I checked out. The following morning...no Internet... I go to the front desk and tell them..they hand me a print out saying the wifi was down in this zip code. NO ETA. Day 2 they say the Provider is working on it. Day 3 I tell them I need to work and need to know when it will be fixed...the front desk said a tech in coming out and they will call me when it's fixed. They tell me I will be receiving 3000...Maintenance switched out the frig 3 times. My child got sick with a virus while staying here and I contacted the front desk at 4am and asked them to please send someone to clean the room when the maid services came in. I called 4 more times the following day to say I needed to take my child to an urgent care facility but wanted to be in the room when they came to clean. Finally at 3pm they sent someone. They also let me know that 4 other people at the hotel had been sick with a virus and one lady went to the ER. First night here the Wifi wouldn't work. I call the front desk the following morning to say I need to work and couldn't connect. Two hours later a person from the Internet provider called me and walked me through the issue and assured me it would be working fine until I checked out. The following morning...no Internet... I go to the front desk and tell them..they hand me a print out saying the wifi was down in this zip code. NO ETA. Day 2 they say the Provider is working on it. Day 3 I tell them I need to work and need to know when it will be fixed...the front desk said a tech in coming out and they will call me when it's fixed. They tell me I will be receiving 3000 reward points for the inconvenience. Then offer to send me to a nearby hotel to use the Lobby Wifi so that I'm able to work. Seriously I thought the Internet was down in the whole ZIP CODE!!?? Did Laundry one night while staying and the machines did not even get the dirt off the clothes. The last night we went to the pool I called the Front Desk to tell them it was dark and none of the pool lights were on. They tell me an engineer will be there to check on it in few mins. 30 mins later the same guy they came to fix my frig time and time again showed up. After an hour the "Engineer" said everyone would need to get out because they were closing the pool due to electrical problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r252453155-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>252453155</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>While attending the Ft. Worth Stock Show I stayed at the Springhill Suites Fort Worth.  The room was clean and well equipped.  Although the free breakfast could be hit or miss as to the availability of food, it did have a variety if you arrived as soon as it opened.  Parking was a problem, especially when arriving later in the evening.  I would definitely stay there again because it was quiet and offered easy access to many area attractions.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r251519467-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>251519467</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Great central location</t>
+  </si>
+  <si>
+    <t>Easy check-in, friendly staff.  Room was clean and sizeable, especially for the price.  The best part was the bed...very comfortable.  The breakfast was good - nice variety of choices.  Easy parking and FREE!  Hotel is close to great parks, TCU, shopping and museums.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r249919471-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>249919471</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Great Location, Nice Rooms</t>
+  </si>
+  <si>
+    <t>This was a great hotel for what we needed. We stayed here during the National Championship game, so we could be away from the crowds and enjoy Fort Worth. The location is great! It's very close to downtown Forth Worth, so we were able to spend time in Sundance Square. We also enjoyed being close to the famous Stockyards in Forth Worth. The room was very comfortable. It did get a little loud with our room/window being right next to the highway, but not too bad. The room was very clean and we had a larger room, so we were really happy with the space. The staff was very nice and welcoming. The breakfast area was really nice and clean as well. Sometimes hotels let the breakfast space stay dirty until after service, but the staff here was always cleaning and making sure the food was filled. Also, the parking is fantastic! They have lots of spaces by the hotel and then a garage for overflow at no charge! We were excited about the free wi-fi too! We would stay here again when we return to Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>This was a great hotel for what we needed. We stayed here during the National Championship game, so we could be away from the crowds and enjoy Fort Worth. The location is great! It's very close to downtown Forth Worth, so we were able to spend time in Sundance Square. We also enjoyed being close to the famous Stockyards in Forth Worth. The room was very comfortable. It did get a little loud with our room/window being right next to the highway, but not too bad. The room was very clean and we had a larger room, so we were really happy with the space. The staff was very nice and welcoming. The breakfast area was really nice and clean as well. Sometimes hotels let the breakfast space stay dirty until after service, but the staff here was always cleaning and making sure the food was filled. Also, the parking is fantastic! They have lots of spaces by the hotel and then a garage for overflow at no charge! We were excited about the free wi-fi too! We would stay here again when we return to Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r243350809-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>243350809</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Love the location!</t>
+  </si>
+  <si>
+    <t>This is a great hotel, with a free, delicious breakfast with good variety choices.  The room was comfortable and clean.  It is very close to the Convention Center and where my daughter lives.  Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>This is a great hotel, with a free, delicious breakfast with good variety choices.  The room was comfortable and clean.  It is very close to the Convention Center and where my daughter lives.  Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r238538473-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>238538473</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Hoppy Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We attended the National Rabbit Convention at the Will Rogers Center.  The hotel location was convenient.  Though will road and ramp construction, the initial arrival was confusing.  The Front Desk Staff were helpful from the time of arrival till the time we checked out a week later.  This helpfulness included accepting and holding our overnight package, giving directions and making needed copies.  The parking garage was convenient and there were plenty of restaurants nearby. If highway noise bothers you be sure not to be on that side of the hotel.  We are use to noise and it did not bother us.  </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r235343546-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>235343546</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Wonderful customer service</t>
+  </si>
+  <si>
+    <t>I spent several nights here for a conference and couldn't have been happier.  Their event specialist was great at making sure event attendees were taken care of and even provided a goody bag to everyone.  She made sure that I had the event rate for my entire stay, which was 1 day longer than most attendees.  She was great to talk with and very responsive to any request.  The front desk staff were awesome and enthusiastic, and were able to give me a room close to my coworkers when I requested it (even though it was not technically part of the block of rooms).  They were also right on the money with their restaurant recommendations and when we came back, remembered to ask how our dinner experience was.  She became our buddy for the remainder of our stay.  Even though the hotel is a bit of a challenge to get to due to road construction, I would recommend it.  My only regret is that it did not have a waffle maker, which is always a treat for me when I travel.  Despite that small thing, my stay was wonderful.  I highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>I spent several nights here for a conference and couldn't have been happier.  Their event specialist was great at making sure event attendees were taken care of and even provided a goody bag to everyone.  She made sure that I had the event rate for my entire stay, which was 1 day longer than most attendees.  She was great to talk with and very responsive to any request.  The front desk staff were awesome and enthusiastic, and were able to give me a room close to my coworkers when I requested it (even though it was not technically part of the block of rooms).  They were also right on the money with their restaurant recommendations and when we came back, remembered to ask how our dinner experience was.  She became our buddy for the remainder of our stay.  Even though the hotel is a bit of a challenge to get to due to road construction, I would recommend it.  My only regret is that it did not have a waffle maker, which is always a treat for me when I travel.  Despite that small thing, my stay was wonderful.  I highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r220366213-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>220366213</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff!</t>
+  </si>
+  <si>
+    <t>I give all aspects of this hotel 5 stars except for the fact that there seemed to be a mold problem in the lobby, dining area and in our first floor room.  I can not speak about the other rooms or floors, but the mold smell was significant. I did not say anything or cause a fuss because, quite honestly, other than that, the hotel is perfect.  The hotel clerk was so kind and nice.  She was helpful, cheerful and smart.  The breakfast was hot and plentiful, the rooms were clean.  It is possible that this is a temporary problem and it may be corrected as I write this, but because I am sensitive to it, I felt like it was something that should mentioned.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I give all aspects of this hotel 5 stars except for the fact that there seemed to be a mold problem in the lobby, dining area and in our first floor room.  I can not speak about the other rooms or floors, but the mold smell was significant. I did not say anything or cause a fuss because, quite honestly, other than that, the hotel is perfect.  The hotel clerk was so kind and nice.  She was helpful, cheerful and smart.  The breakfast was hot and plentiful, the rooms were clean.  It is possible that this is a temporary problem and it may be corrected as I write this, but because I am sensitive to it, I felt like it was something that should mentioned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r218545738-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>218545738</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Very close to TCU and Will Rogers!</t>
+  </si>
+  <si>
+    <t>This place was just great. Super comfy beds, lots of room with the separate space for the pull out.  Lots of construction in the area so very tricky to find although it is just off the interstate so super handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>This place was just great. Super comfy beds, lots of room with the separate space for the pull out.  Lots of construction in the area so very tricky to find although it is just off the interstate so super handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r217602814-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>217602814</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Nice facility</t>
+  </si>
+  <si>
+    <t>Spent one night here on business -- had planned on two, but the location was poor for us, so decided to move.  Someone else in our party made the reservation - and didn't pay attention to location.Depending on where you need to be in Ft. Worth, this could be a great position, but we found that it is sandwiched between train tracks and the freeway, and a major construction site.The suite room was very nice, staff friendly, and breakfast was above average.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r207845976-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>207845976</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>A bit of a mess with the construction, but such a great location</t>
+  </si>
+  <si>
+    <t>The hotel had friendly staff and clean large size rooms. I was in town volunteering for the Colonial and we had to park at Will Rodgers so this was perfect. It is easy to get on University going towards TCU but a little more difficult going the other way during rush hour. I-30 is just around the corner. The medical district and downtown weren't any problem either. They have a parking garage so there is plenty of rooom for your car. I will be staying there again no doubt about it.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r205378375-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>205378375</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Another comfortable business stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while attending a meeting at the Fort Worth Botanic Gardens.  The hotel is conveniently located to the Gardens with easy access on and off the highway.  The hotel was clean and comfortable.  The staff were extremely friendly and helpful.  The cafe has a limited but delicious menu.  I would stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r203912362-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>203912362</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Decent Hotel, convenient location</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel since the usual hotels that I stay at were all booked during my trip dates.  Although there is a lot of construction right off of I-30 at the University exit, getting to the hotel is still pretty easy. I ended up in a first floor room, which wouldn't have been my first choice. The room seemed clean aside from the bathroom. There appeared to be tiny bits of vomit residue on one of the walls and door frame...Kinda gross, but it wasn't glaringly obvious at first glance. So I could maybe understand how housekeeping would've missed cleaning it...still gross though. The breakfast was sufficient &amp; the staff were friendly.  The location was great since it the highway runs along side the hotel &amp; was easily accessible. I wasn't bothered by highway noise at all.  The beds were ok...a bit stiff, but tolerable.  Overall, the hotel provided a decent stay, but definitely not my first or second choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel since the usual hotels that I stay at were all booked during my trip dates.  Although there is a lot of construction right off of I-30 at the University exit, getting to the hotel is still pretty easy. I ended up in a first floor room, which wouldn't have been my first choice. The room seemed clean aside from the bathroom. There appeared to be tiny bits of vomit residue on one of the walls and door frame...Kinda gross, but it wasn't glaringly obvious at first glance. So I could maybe understand how housekeeping would've missed cleaning it...still gross though. The breakfast was sufficient &amp; the staff were friendly.  The location was great since it the highway runs along side the hotel &amp; was easily accessible. I wasn't bothered by highway noise at all.  The beds were ok...a bit stiff, but tolerable.  Overall, the hotel provided a decent stay, but definitely not my first or second choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r187574950-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>187574950</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Lack of service</t>
+  </si>
+  <si>
+    <t>I have stayed here before and it was a good location since we need to be close to TCU, unfortunately this time I was very disappointed. I am traveling with my kids and I reserved two rooms, I called a few weeks ago letting them know that I needed the two rooms next to each other and they said " that is no problem, I will make a note on your reservation " , I arrived today and found out the rooms are Not next to each other and the only response to my complain was: " I am sorry, that is all we can give you for the moment". I find that to be a poor response coming from a , what I thought was, serious hotel chain like Marriott. If I would have been told that my request was not possible due to high demand I would have made my decision if I wanted to book here anyway or not. I was told ok, I trusted  and then they did not care if they act accordingly to their word or not. So sad to see what has become of Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed here before and it was a good location since we need to be close to TCU, unfortunately this time I was very disappointed. I am traveling with my kids and I reserved two rooms, I called a few weeks ago letting them know that I needed the two rooms next to each other and they said " that is no problem, I will make a note on your reservation " , I arrived today and found out the rooms are Not next to each other and the only response to my complain was: " I am sorry, that is all we can give you for the moment". I find that to be a poor response coming from a , what I thought was, serious hotel chain like Marriott. If I would have been told that my request was not possible due to high demand I would have made my decision if I wanted to book here anyway or not. I was told ok, I trusted  and then they did not care if they act accordingly to their word or not. So sad to see what has become of Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r185246647-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>185246647</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Expected Better from a Marriott</t>
+  </si>
+  <si>
+    <t>I stayed a couple of months ago, and it was for work purposes. The gentleman who checked me in was a great example of great customer service. I know the hotel staff was going through a housekeeping supervisor change and understand how some things can be left forgotten; however, if I was gven a chance to stay there free in the future, I wouldn't commit to it. Upon walking into the room, there was an ackwardly placed couch and laptop bench, seemed alright...I always book a two bed type room when staying in a hotel in case of housekeeping issues. Both of my beds not only had pubic hair in them but also looked well slept in. I only know what it looks like because I have been in housekeeping before. I slept in the pull out sofa instead of a nice comfy bed that night....a little frustrating...The tub had a stained clear curtain and tub itself was dirty and smelled of mildew...I refused to take a shower in...that should be checked daily and dryed off as often as it is used...Stepped on a sticker(may not have been housekeepings fault), Microwave was filthy before I even used it. It's sad for a property that is under 10 years old, to look like it was thirty years old because of lack of cleaniness. I did not complain to anyone, but I didn't have a terrific stay because of these issues...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I stayed a couple of months ago, and it was for work purposes. The gentleman who checked me in was a great example of great customer service. I know the hotel staff was going through a housekeeping supervisor change and understand how some things can be left forgotten; however, if I was gven a chance to stay there free in the future, I wouldn't commit to it. Upon walking into the room, there was an ackwardly placed couch and laptop bench, seemed alright...I always book a two bed type room when staying in a hotel in case of housekeeping issues. Both of my beds not only had pubic hair in them but also looked well slept in. I only know what it looks like because I have been in housekeeping before. I slept in the pull out sofa instead of a nice comfy bed that night....a little frustrating...The tub had a stained clear curtain and tub itself was dirty and smelled of mildew...I refused to take a shower in...that should be checked daily and dryed off as often as it is used...Stepped on a sticker(may not have been housekeepings fault), Microwave was filthy before I even used it. It's sad for a property that is under 10 years old, to look like it was thirty years old because of lack of cleaniness. I did not complain to anyone, but I didn't have a terrific stay because of these issues...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r173267166-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>173267166</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>It's ok!</t>
+  </si>
+  <si>
+    <t>As a frequent traveler, I've stayed in happier places!  The staff is great, the rooms were clean, but even with what looks like a retro fit, it still felt old, moldy and depressed.  There is a definite "old" smell right when you walk in.  The carpet was dark and smelled.  My room was dark and just didn't feel welcoming.Construction in the area is insane, but that its not the hotels fault, just a warning, allow yourself time to get here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r165715866-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>165715866</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>It was okay</t>
+  </si>
+  <si>
+    <t>Close to TCU...except for the construction:(. But that is beyond the hotel's hands.  Pool was very small and outdoors so our kidos were a bit disappointed.  Breakfast was good.  Parking was good.  Has all the basics.  Sufficient room for all 5 of us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r164805304-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>164805304</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Great rooms, nice staff, close to TCU and cultural district</t>
+  </si>
+  <si>
+    <t>We recently stayed here several days while my son attended "frog camp" at TCU.  The rooms are spacious, with a separate sitting area.  There is a small fitness center (2 treadmills and an elliptical).   The staff was very nice and helpful.  We'll definitely stay here again!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r159253018-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>159253018</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>My co-worked and I stayed for 3 nights to attend a conference at the Fort Worth Convention Center. It was about $100 less than hotels in walking distance to the center, but more convenient to excellent dining on Hulen. I recommend it if if you have a car since it was only about 7-10 minutes by the freeway. We did have to pay for parking everyday but there was $6 lot behind St. Patrick's Cathedral.We did not receive a room with 2 beds as asked but I was able to sleep on the pullout quite comfortably. With the room divided into a sleep and office area, it was almost like having 2 rooms, so it worked out. There was not a lot of noise. The parking garage was convenient. Breakfast was more than decent with yogurt, fresh fruit, juice, cereal, muffins, bagels, toast, waffles, eggs, and sausage or bacon available daily.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My co-worked and I stayed for 3 nights to attend a conference at the Fort Worth Convention Center. It was about $100 less than hotels in walking distance to the center, but more convenient to excellent dining on Hulen. I recommend it if if you have a car since it was only about 7-10 minutes by the freeway. We did have to pay for parking everyday but there was $6 lot behind St. Patrick's Cathedral.We did not receive a room with 2 beds as asked but I was able to sleep on the pullout quite comfortably. With the room divided into a sleep and office area, it was almost like having 2 rooms, so it worked out. There was not a lot of noise. The parking garage was convenient. Breakfast was more than decent with yogurt, fresh fruit, juice, cereal, muffins, bagels, toast, waffles, eggs, and sausage or bacon available daily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r154463760-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>154463760</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Close to TCU</t>
+  </si>
+  <si>
+    <t>We were in town visiting colleges and booked this hotel because it was close to TCU.  I had requested a room on the top floor, away from the highway.  When we checked in, the desk person told me they did not have anything on the top floor - but did have 3rd floor on the back side.  And...it was fine.  Heard a bit of road noise and quite a few train whistles...but no hotel noise.  The rooms were clean and well appointed.  However, they had a very strange shape.  Just lots of odd angles which seemed to waste space - in my opinion.  There was a separate sink, microwave and fridge in the small living room along with a pull out sofa bed.  Then, the king bed was behind a sort of 3/4 wall for privacy.  It worked fine for the three of us.  The sink was in a separate area from the shower/toilet and that is handly if you have more than one adult trying to get ready in the morning.  Breakfast was your typical for this type of hotel. But, there were many options and the hotel person kept it filled at all times...even after a huge number of college golfers came through on their way to a tournament.  The Texas shaped waffle maker is a hoot!I would stay here again, if we were in town for a quick trip and not looking for luxury.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We were in town visiting colleges and booked this hotel because it was close to TCU.  I had requested a room on the top floor, away from the highway.  When we checked in, the desk person told me they did not have anything on the top floor - but did have 3rd floor on the back side.  And...it was fine.  Heard a bit of road noise and quite a few train whistles...but no hotel noise.  The rooms were clean and well appointed.  However, they had a very strange shape.  Just lots of odd angles which seemed to waste space - in my opinion.  There was a separate sink, microwave and fridge in the small living room along with a pull out sofa bed.  Then, the king bed was behind a sort of 3/4 wall for privacy.  It worked fine for the three of us.  The sink was in a separate area from the shower/toilet and that is handly if you have more than one adult trying to get ready in the morning.  Breakfast was your typical for this type of hotel. But, there were many options and the hotel person kept it filled at all times...even after a huge number of college golfers came through on their way to a tournament.  The Texas shaped waffle maker is a hoot!I would stay here again, if we were in town for a quick trip and not looking for luxury.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r153148598-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>153148598</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Great stay for Cow Town race</t>
+  </si>
+  <si>
+    <t>Staff professional, friendly.  Room perfect, comfy.  Served breakfast starting ay 4:30 AM for Cow Town races, provided shuttle to the event.  Very happy with quality of hotel and enjoyed the stay.  Good parking in covered area of garage.  Convenient location for dining and events.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>micah w, General Manager at SpringHill Suites, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Staff professional, friendly.  Room perfect, comfy.  Served breakfast starting ay 4:30 AM for Cow Town races, provided shuttle to the event.  Very happy with quality of hotel and enjoyed the stay.  Good parking in covered area of garage.  Convenient location for dining and events.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r150840031-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>150840031</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Ft. Worth visit</t>
+  </si>
+  <si>
+    <t>very clean and nice room.  Front desk staff were great.  Parking was easy.The breakfast was good and there was a several choices. There is construction near the hotel, and did make it difficult to get into the hotel at certain times.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r150103457-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>150103457</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service...Quiet and Clean Suites</t>
+  </si>
+  <si>
+    <t>We stayed here to attend High School Playoffs and a Cowboys game.  Great location next to expressway.  Kind of hard to find because of construction.  Our suite was 1st floor.  Room was quiet and clean.  Frontdesk staff was very helpful with directions and accomodations.  Parking was easy and most of all free.  This Springhill Suites did not have fruits and drinks in the lobby as expected.  However, I asked frontdesk attendant for water and was given bottled water.---Just a 20 to 25 minute freeway drive from Cowboys Stadium</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r140831289-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>140831289</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, lots of ammenities, great staff</t>
+  </si>
+  <si>
+    <t>You won't find a better hotel in Ft. Worth for the price. I've stayed here twice and, each time, my room came with a nice comfortable bed, sofa, flat screen TV, microwave, and mini-fridge. Nicely decorated. TV swivels so you can watch it from the sofa or from the bed. Fridge is not cold enough to store milk, but you can use the ice bucket for that. It's enough to keep most other things. Generous breakfast (not gourmet but lots of cereals, scrambled eggs, some breads, fresh fruits, coffee, tea, milk) served from early to mid-morning in a spacious dining room with morning news on TV. You can eat down there or carry breakfast up to your room.  Complimentary newspapers (Wall St Journal, US Today, and local paper).  World's smallest pool so don't plan to actually swim (just wade) but there's a nice fitness room.  Great location. Five minutes to TCU. Ten minutes into downtown.  Clean and comfortable and a great staff.  Tiny shop on first floor if you need a snack, ice cream, or an aspirin. Traffic outside rooms on highway side of hotel can be a little noisy, especially on Frid and Sat nights. Free covered parking which is a huge plus in the summer time when it's over 100 degrees here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>You won't find a better hotel in Ft. Worth for the price. I've stayed here twice and, each time, my room came with a nice comfortable bed, sofa, flat screen TV, microwave, and mini-fridge. Nicely decorated. TV swivels so you can watch it from the sofa or from the bed. Fridge is not cold enough to store milk, but you can use the ice bucket for that. It's enough to keep most other things. Generous breakfast (not gourmet but lots of cereals, scrambled eggs, some breads, fresh fruits, coffee, tea, milk) served from early to mid-morning in a spacious dining room with morning news on TV. You can eat down there or carry breakfast up to your room.  Complimentary newspapers (Wall St Journal, US Today, and local paper).  World's smallest pool so don't plan to actually swim (just wade) but there's a nice fitness room.  Great location. Five minutes to TCU. Ten minutes into downtown.  Clean and comfortable and a great staff.  Tiny shop on first floor if you need a snack, ice cream, or an aspirin. Traffic outside rooms on highway side of hotel can be a little noisy, especially on Frid and Sat nights. Free covered parking which is a huge plus in the summer time when it's over 100 degrees here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r138460555-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>138460555</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Didn't clean our room</t>
+  </si>
+  <si>
+    <t>Everything was okay except they never cleaned our room the entire weekend we were there. The staff was very friendly, the workout room was nice and clean, the breakfast was good. The staff that serves the breakfast was extremely nice!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r130474958-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>130474958</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We found this hotel to be nice and quiet....it is tucked away in a quiet corner of Ft. Worth near the zoo and other attractions.  We stayed in the larger suite on a whim, and although it was nice, it did not looked like it had been dusted for quite a while-someone's rag was still near the sink from who knows when.  The staff is friendly and helpful and we enjoyed the quiet area.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r128305894-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>128305894</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel...good service...met expectations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard stay at a place like this.  Staff was nice.  No noise or cleanliness problems.  No issues and close to TCU stff and Ft Worth zoo.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r127855534-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>127855534</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>a good value</t>
+  </si>
+  <si>
+    <t>I had read the reviews before staying at this hotel, so I knew to stay on the side AWAY from the interstate.  I pre-paid on-line, but when I arrived, I was not booked into a 'non-interstate' room.  When I asked AGAIN (nicely), the desk clerk did get us a room away from the interstate.  Whew!  Anyway, we've had bigger suites, but for this price, this was a good value.  With breakfast included, our family of 5 did pretty well, price-wise.  There is a Mexican restaurant across the street that has been there forever, it's pretty good.  Also, there was some mention of the train that runs near the hotel -- it's not bad at all.  With the air conditioner running we barely were aware of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I had read the reviews before staying at this hotel, so I knew to stay on the side AWAY from the interstate.  I pre-paid on-line, but when I arrived, I was not booked into a 'non-interstate' room.  When I asked AGAIN (nicely), the desk clerk did get us a room away from the interstate.  Whew!  Anyway, we've had bigger suites, but for this price, this was a good value.  With breakfast included, our family of 5 did pretty well, price-wise.  There is a Mexican restaurant across the street that has been there forever, it's pretty good.  Also, there was some mention of the train that runs near the hotel -- it's not bad at all.  With the air conditioner running we barely were aware of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r125790854-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>125790854</t>
+  </si>
+  <si>
+    <t>03/08/2012</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>I was in town to run a marathon. They catered to the marathoners needs, good free breakfast, late check outs, friendly service and clean hotel. Would stay again.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r124406326-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>124406326</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>This hotel was average.</t>
+  </si>
+  <si>
+    <t>First this hotel is a little hard to get to, you have to go down a few side streets. The service and staff were great. However, the beds needed changing. The beds were hard and not comfortable.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r121816838-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>121816838</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>Right off the freeway, but not walkable to food</t>
+  </si>
+  <si>
+    <t>This hotel is a great location to stay in for visiting Forth Worth as it's just a 5 minute drive from the Arts district and is conveniently located right off the freeway. However, the blocks around it are deserted and it's not walkable to any restaurants. The room was great; spacious and clean. The free breakfast was also very good and the hotel staff was nice. It also has good air conditioning.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r116511795-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>116511795</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Great stay &amp; would stay here again</t>
+  </si>
+  <si>
+    <t>Really friendly, helpful staff!  This is always big in my eyes!  Room was very good size &amp; 3 of us were staying there for the Scentsy convention while in town and there was more than enough room to keep us from tripping on each other.  One complaint (if you can even classify this as a complaint) is that the handsoap bar they sitting out smells.  Oh and it would have been great if they'd of had a shuttle from the airport, but again not a huge deal!  We were just two minutes from the convention center &amp; had a rental car so it worked out great for us.  Oh &amp; you HAVE to go eat at the Mexican restaurant across the street!  It looks a little scary, but the food was SO GOOD &amp; the prices were great! I would reccommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Really friendly, helpful staff!  This is always big in my eyes!  Room was very good size &amp; 3 of us were staying there for the Scentsy convention while in town and there was more than enough room to keep us from tripping on each other.  One complaint (if you can even classify this as a complaint) is that the handsoap bar they sitting out smells.  Oh and it would have been great if they'd of had a shuttle from the airport, but again not a huge deal!  We were just two minutes from the convention center &amp; had a rental car so it worked out great for us.  Oh &amp; you HAVE to go eat at the Mexican restaurant across the street!  It looks a little scary, but the food was SO GOOD &amp; the prices were great! I would reccommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r83381311-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>83381311</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>the employees did not show any kindness or concern</t>
+  </si>
+  <si>
+    <t>We check in at night, and the front desk employee were not kind at all (10-9-10). Besides  they did not give us the correct breakfast schedule.Our third night, at midnight the air condition broke down, the smell stay in our room about one hour....so we could not  sleep the whole night. They did not seem to have any concern about this. They gave us 1000 marriot points, but I had rather received a nice apologize.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r53291378-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>53291378</t>
+  </si>
+  <si>
+    <t>01/12/2010</t>
+  </si>
+  <si>
+    <t>will stay here again</t>
+  </si>
+  <si>
+    <t>My wife and I stayed while moving our daughter there for college.  We had a clean, spacious room with king bed and sleeper sofa.  The hotel overall was very clean.  They had an excellent breakfast consisting of eggs, sausage, waffles, pastries, bagles, cereal (hot &amp; cold), coffee and juices.  It was just as nice as more expensive hotels where we have stayed.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r16906965-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>16906965</t>
+  </si>
+  <si>
+    <t>06/13/2008</t>
+  </si>
+  <si>
+    <t>Noisy but Nice</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to its proximity to TCU, but we were unaware of its closer proximity to the freeway and railroad tracks.  The hotel was clean and the staff friendly.  When we were assigned a 3rd floor room facing the freeway, I immediately was aware of the traffic noise and requested a room on the other side of the hotel.  They accommodated us and we were pleased until we discovered the toilet in the new room wouldn't flush.  As the maintenance staff was gone for the day, we agreed it might be best to change rooms once again.  Our 3rd room overlooked the parking lot and appeared to be quiet until the trains woke us up throughout the night.  The breakfast buffet offered a good variety.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to its proximity to TCU, but we were unaware of its closer proximity to the freeway and railroad tracks.  The hotel was clean and the staff friendly.  When we were assigned a 3rd floor room facing the freeway, I immediately was aware of the traffic noise and requested a room on the other side of the hotel.  They accommodated us and we were pleased until we discovered the toilet in the new room wouldn't flush.  As the maintenance staff was gone for the day, we agreed it might be best to change rooms once again.  Our 3rd room overlooked the parking lot and appeared to be quiet until the trains woke us up throughout the night.  The breakfast buffet offered a good variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r15426724-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>15426724</t>
+  </si>
+  <si>
+    <t>04/28/2008</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>When I see "suites" I think of two rooms.  There was one room, and it was not at all like on the general Springhill Suites website whose pictures really implied two rooms, or at least one that was separated.  The "kitchen" consisted of a cheap formica counter with a microwave (paper plates stacked in side) and a one-cup coffee maker.  The sofabed was miserable--a thin mattress, lumpy, and when it was made out, you had to climb over the beds to get from one side of the room to another.  For the price ($279/night) it wasn't worth it.  They offered rollaway beds "if available," but when I called the front desk to ask about one (after having requested it on the reservation website) was told that they didn't have rollaway beds at this property.  Clean, very friendly staff, but not worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>When I see "suites" I think of two rooms.  There was one room, and it was not at all like on the general Springhill Suites website whose pictures really implied two rooms, or at least one that was separated.  The "kitchen" consisted of a cheap formica counter with a microwave (paper plates stacked in side) and a one-cup coffee maker.  The sofabed was miserable--a thin mattress, lumpy, and when it was made out, you had to climb over the beds to get from one side of the room to another.  For the price ($279/night) it wasn't worth it.  They offered rollaway beds "if available," but when I called the front desk to ask about one (after having requested it on the reservation website) was told that they didn't have rollaway beds at this property.  Clean, very friendly staff, but not worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r11713869-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>11713869</t>
+  </si>
+  <si>
+    <t>12/20/2007</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>This is an above average business hotel.  There are restaurants nearby.  The pool looked decent.  There was plenty of parking with the new garage next door.  Front desk staff was friendly.  Free newspaper.Positives:  Free breakfast included hot eggs.  Negatives:  Free Internet was slow during the evening.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r3748361-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>3748361</t>
+  </si>
+  <si>
+    <t>08/08/2005</t>
+  </si>
+  <si>
+    <t>Good value in a good location</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  We were inpressed with the room set up, we had two double beds and a pull out sofa bed, which was handy as we are a family of four.  There is a tiny kitchenettte with microwave, fridge, coffee maker and sink. The staff were helpful, friendly and courteous.  There is a free basic breakfast available.  The pool was small but we had it to ourselves during the day as the hotel is used mainly by business people.  There was a hot jacuzzi tub too. There was free high speed internet access in the room, also a computer was available for use in the main lobby.  We liked the location although it was next to the I30 you didn't hear anything.  Fort Worth Zoo was about 1 mile away which we highly recommend.  There was also an outside shopping mall within a ten minute walk or 2 min in the car.  The stockyards were within a 15 min drive, easy route just up University drive.If we were visiting the area again we would definitely consider staying at the Springhill suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2005</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  We were inpressed with the room set up, we had two double beds and a pull out sofa bed, which was handy as we are a family of four.  There is a tiny kitchenettte with microwave, fridge, coffee maker and sink. The staff were helpful, friendly and courteous.  There is a free basic breakfast available.  The pool was small but we had it to ourselves during the day as the hotel is used mainly by business people.  There was a hot jacuzzi tub too. There was free high speed internet access in the room, also a computer was available for use in the main lobby.  We liked the location although it was next to the I30 you didn't hear anything.  Fort Worth Zoo was about 1 mile away which we highly recommend.  There was also an outside shopping mall within a ten minute walk or 2 min in the car.  The stockyards were within a 15 min drive, easy route just up University drive.If we were visiting the area again we would definitely consider staying at the Springhill suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r3450456-SpringHill_Suites-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>3450456</t>
+  </si>
+  <si>
+    <t>05/08/2005</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay very much.  Our room was clean and had a  comfortable sofa bed, along with frig, microwave and sink.  The staff was friendly and helpful.  Breakfast was great, with a good variety of choices.  There is also a covered parking garage.  We definately liked this hotel.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2370,5096 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>275</v>
+      </c>
+      <c r="X33" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>284</v>
+      </c>
+      <c r="X34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>298</v>
+      </c>
+      <c r="X36" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>306</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" t="s">
+        <v>309</v>
+      </c>
+      <c r="K38" t="s">
+        <v>310</v>
+      </c>
+      <c r="L38" t="s">
+        <v>311</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" t="s">
+        <v>313</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>325</v>
+      </c>
+      <c r="X40" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>333</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>334</v>
+      </c>
+      <c r="X41" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>343</v>
+      </c>
+      <c r="X42" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43" t="s">
+        <v>349</v>
+      </c>
+      <c r="L43" t="s">
+        <v>350</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>351</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>352</v>
+      </c>
+      <c r="X43" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>374</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>378</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>388</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>390</v>
+      </c>
+      <c r="J49" t="s">
+        <v>391</v>
+      </c>
+      <c r="K49" t="s">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s">
+        <v>393</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>395</v>
+      </c>
+      <c r="X49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>406</v>
+      </c>
+      <c r="J51" t="s">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>411</v>
+      </c>
+      <c r="X51" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>313</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>426</v>
+      </c>
+      <c r="J54" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>428</v>
+      </c>
+      <c r="L54" t="s">
+        <v>429</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>430</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>436</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>437</v>
+      </c>
+      <c r="X55" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>440</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56" t="s">
+        <v>442</v>
+      </c>
+      <c r="K56" t="s">
+        <v>443</v>
+      </c>
+      <c r="L56" t="s">
+        <v>444</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>445</v>
+      </c>
+      <c r="X56" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>449</v>
+      </c>
+      <c r="J57" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>454</v>
+      </c>
+      <c r="X57" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>459</v>
+      </c>
+      <c r="K58" t="s">
+        <v>460</v>
+      </c>
+      <c r="L58" t="s">
+        <v>461</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+      <c r="J59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" t="s">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>466</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>468</v>
+      </c>
+      <c r="J60" t="s">
+        <v>469</v>
+      </c>
+      <c r="K60" t="s">
+        <v>470</v>
+      </c>
+      <c r="L60" t="s">
+        <v>471</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>472</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>474</v>
+      </c>
+      <c r="J61" t="s">
+        <v>475</v>
+      </c>
+      <c r="K61" t="s">
+        <v>476</v>
+      </c>
+      <c r="L61" t="s">
+        <v>477</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>478</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>481</v>
+      </c>
+      <c r="J62" t="s">
+        <v>482</v>
+      </c>
+      <c r="K62" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" t="s">
+        <v>484</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>485</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>492</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>493</v>
+      </c>
+      <c r="X63" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>497</v>
+      </c>
+      <c r="J64" t="s">
+        <v>498</v>
+      </c>
+      <c r="K64" t="s">
+        <v>499</v>
+      </c>
+      <c r="L64" t="s">
+        <v>500</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>501</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>502</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>503</v>
+      </c>
+      <c r="J65" t="s">
+        <v>504</v>
+      </c>
+      <c r="K65" t="s">
+        <v>505</v>
+      </c>
+      <c r="L65" t="s">
+        <v>506</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>507</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>508</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>509</v>
+      </c>
+      <c r="J66" t="s">
+        <v>510</v>
+      </c>
+      <c r="K66" t="s">
+        <v>511</v>
+      </c>
+      <c r="L66" t="s">
+        <v>512</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>513</v>
+      </c>
+      <c r="O66" t="s">
+        <v>313</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>515</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>516</v>
+      </c>
+      <c r="J67" t="s">
+        <v>517</v>
+      </c>
+      <c r="K67" t="s">
+        <v>518</v>
+      </c>
+      <c r="L67" t="s">
+        <v>519</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>520</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>521</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>522</v>
+      </c>
+      <c r="J68" t="s">
+        <v>523</v>
+      </c>
+      <c r="K68" t="s">
+        <v>524</v>
+      </c>
+      <c r="L68" t="s">
+        <v>525</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>526</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>527</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>528</v>
+      </c>
+      <c r="J69" t="s">
+        <v>529</v>
+      </c>
+      <c r="K69" t="s">
+        <v>530</v>
+      </c>
+      <c r="L69" t="s">
+        <v>531</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" t="s">
+        <v>534</v>
+      </c>
+      <c r="K70" t="s">
+        <v>535</v>
+      </c>
+      <c r="L70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>537</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>540</v>
+      </c>
+      <c r="J71" t="s">
+        <v>541</v>
+      </c>
+      <c r="K71" t="s">
+        <v>542</v>
+      </c>
+      <c r="L71" t="s">
+        <v>543</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>544</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>545</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>546</v>
+      </c>
+      <c r="J72" t="s">
+        <v>547</v>
+      </c>
+      <c r="K72" t="s">
+        <v>548</v>
+      </c>
+      <c r="L72" t="s">
+        <v>549</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>550</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>551</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>552</v>
+      </c>
+      <c r="J73" t="s">
+        <v>553</v>
+      </c>
+      <c r="K73" t="s">
+        <v>554</v>
+      </c>
+      <c r="L73" t="s">
+        <v>555</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>556</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>557</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>558</v>
+      </c>
+      <c r="J74" t="s">
+        <v>559</v>
+      </c>
+      <c r="K74" t="s">
+        <v>560</v>
+      </c>
+      <c r="L74" t="s">
+        <v>561</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>562</v>
+      </c>
+      <c r="O74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>565</v>
+      </c>
+      <c r="J75" t="s">
+        <v>566</v>
+      </c>
+      <c r="K75" t="s">
+        <v>567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>568</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>569</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>570</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>571</v>
+      </c>
+      <c r="J76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L76" t="s">
+        <v>574</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>575</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>576</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>577</v>
+      </c>
+      <c r="J77" t="s">
+        <v>578</v>
+      </c>
+      <c r="K77" t="s">
+        <v>579</v>
+      </c>
+      <c r="L77" t="s">
+        <v>580</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>581</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>583</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>584</v>
+      </c>
+      <c r="J78" t="s">
+        <v>585</v>
+      </c>
+      <c r="K78" t="s">
+        <v>586</v>
+      </c>
+      <c r="L78" t="s">
+        <v>587</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>588</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>590</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>591</v>
+      </c>
+      <c r="J79" t="s">
+        <v>592</v>
+      </c>
+      <c r="K79" t="s">
+        <v>593</v>
+      </c>
+      <c r="L79" t="s">
+        <v>594</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>595</v>
+      </c>
+      <c r="O79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>596</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>597</v>
+      </c>
+      <c r="J80" t="s">
+        <v>598</v>
+      </c>
+      <c r="K80" t="s">
+        <v>599</v>
+      </c>
+      <c r="L80" t="s">
+        <v>600</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>601</v>
+      </c>
+      <c r="O80" t="s">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52586</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>603</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>604</v>
+      </c>
+      <c r="J81" t="s">
+        <v>605</v>
+      </c>
+      <c r="K81" t="s">
+        <v>606</v>
+      </c>
+      <c r="L81" t="s">
+        <v>607</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_695.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_695.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="688">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>lvs10s</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Our room was 4 stories above the highway and we heard the traffic all night long.  It was terrible.  The hotel was very full, so switching rooms was not an option.  The breakfast did not look very appetizing in the morning.  The only bright spot was Shayna at the front desk!  She was very friendly!  We'll never stay here again.More</t>
   </si>
   <si>
+    <t>teacher91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r535054299-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>notyours</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r525749213-SpringHill_Suites-Fort_Worth_Texas.html</t>
@@ -238,6 +247,9 @@
 Overall the room was nice, kind of the standard Springhill design where the doors are angled into the room or triangled.  The area in front of the desk was not open...I recently spent 3 nights at this hotel for a business trip arriving Sunday night and departing on Wednesday.  First off this hotel can be hard to find the first time.  The address on Lovell is really just off and Lovell is a one way street.  Technically the hotel is at the intersection of Locke and Pulido street.  Put that in your GPS and its easy to get to.  The parking lot out front is very small, easy to fill it up, but they have a partial garage next door that they use as well.  I had checked in on-line which makes it easy.  The lady at the desk was quick and courteous.  Now instead of having some water or fruit available like I see at some hotels they had a bowel of lollipops.  A big bowel of big lollipops.  Strange but ok.  I liked the fact that one elevator was always down and open on the first floor. Why don't more places do this?  You walk right into the elevator and go.  The pool area is actually quite nice for a hotel this size.  The fitness center was nice, but just had enough room for a couple of treadmills, a single elliptical and some dumb bells.  Nothing impressive.  Overall the room was nice, kind of the standard Springhill design where the doors are angled into the room or triangled.  The area in front of the desk was not open like I've seen some rooms and the cabinet over the wet bar sink was really low almost blocking the sink.  Overall room was nice, no major maintenance issues.  I really didn't notice much about the hotel in general that was needing to be updated/fixed/etc.  Housekeeping was overall good.  The first day I returned and my room had been cleaned from top to bottom.  Everything was put back in its place, including my toothbrush.  The second day housekeeping just basically showed up and made the bed.  The bed was good, my room was on the parking lot side so noise from the freeway was not an issue.  Breakfast was actually very good.  It was the standard breakfast fare and only changed slightly each day but everything was done well.  Waffles were the only things missing but they did have fruit, yogurt, oatmeal, scrambed eggs (very well done each day) a bacon or sausage, biscuits and different pastries.  I did not get the ladies name who managed the breakfast area but she was very nice and very helpful each day.  Excellent customer service skills.  I do wish that they had a second trash can towards the front door, that would help the flow of people.  I like the overall location of this hotel.  Its a short drive to many different areas of Forth Worth.  There is a mexican restaurant right across the street.  Overall the hotel met my expectations, it didn't wow me but I would not hesitate to return here again.More</t>
   </si>
   <si>
+    <t>cl0d01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r511124226-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -259,6 +271,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>bohste</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r508261466-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -286,6 +301,9 @@
     <t>Let me start by saying we really like the Springhill Suites brand and that is one of the reasons we chose to stay there for 4 nights..  We chose this one because of it's proximity to things we wanted to visit - museums, zoo, botanical garden, downtown, restaurants.  For the most part it is a clean facility, but it looks like one of the original designs.  The wallpaper is a little worn and it can use a refresh.  My main complaints are fairly large ones.  First of all, the mattress in our room was horrible.  A large indentation in the bed and it hurt my back. Everytime we turned in the bed the squeak would wake us up.  Anytime I can't get a good night's sleep in a hotel that's a "mortal sin!"  The second complaint has to do with the breakfast area.  It is very small for the size of this 4 story hotel.  To make matters worse they filled the small area with heavy wooden tables, multiple community tables and the business computers. It was hard to move around in the room when it was crowded with guests.All of the workers here were nice &amp; courteous, so this is no knock on them.  The pricing is reasonable especially when you consider what a great location this is.More</t>
   </si>
   <si>
+    <t>Dooley45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r503820417-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -304,6 +322,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>lisa_ann201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r490411451-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -328,6 +349,9 @@
     <t>This hotel has everything it takes in my book: it's clean, friendly, quiet, and the beds are perfect!  I rarely rate a hotel 5 stars - but this was a no brainer.  Every single worker was as friendly as could be.  The hotel room was perfectly clean to the point where I was fine if the kids left things on the floor (usually I don't let anything except shoes be on the floor!). And the bed was so comfy - felt luxurious to me.  We were at the end of a hallway (I always recommend this for anyone!) so away from the elevator and ice/vending. The best hotel I can remember staying at in a long, long time.More</t>
   </si>
   <si>
+    <t>Jbshkg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r486635796-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -355,6 +379,9 @@
     <t>If you have been to this brand before, it delivers all as promised. The staff is good, the check-in was fast and effortless, I got all my benefits as promised, check-out was great, etc. As mentioned by others, it is a bit loud as it is close to main roads/highways and a bit awkward to find. You can see from the interstate but getting to it the first time is a bit strange due to some one-way roads, after that, no problem. If you are using this hotel for TCU type of stuff, then it is a great location for both the school and if you want to go downtown to the revised area. The downtown was no more than 7-10 minutes away and TCU was 5 minutes. Alll facilities were neat and clean so no problems. Breakfast was standard.and couuld use a bit of updating. The price was quite high for this property but I think that was due to graduation as it wasn't that high for other dates, hwever, due to its location, i was fine with the price.More</t>
   </si>
   <si>
+    <t>Donald R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r485453114-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -371,6 +398,9 @@
   </si>
   <si>
     <t>The hotel was nice and clean. The access is a little tough from the road, but it is quiet and convenient to all places downtown.There are restaurants just down the street that range from fast food to fine dining.Great for a quick business trip to Fort Worth.More</t>
+  </si>
+  <si>
+    <t>themosh1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r479473613-SpringHill_Suites-Fort_Worth_Texas.html</t>
@@ -401,6 +431,9 @@
  There are only a handful of parking spots in...The check-in got me off on the wrong foot and set the tone.  I don't want to sound like a Prima Donna, but I do expect the person checking me in to be friendly, courteous, and be a step above someone checking me in at a Motel 6.  I stepped up to the counter and indicated that I had checked in online earlier and gave the gentleman my last name.  His response was "ID and last 4 of your credit card".  I gave him what he requested and he handed me my key.  There was no "thanks for being a Gold Elite member" or "would you care for a complimentary bottled water" or "let me check to see if I can get you a room upgrade" or "breakfast is in the lobby at 6:00" or ANYTHING at all.  Just "here's your key".  I even had to ask where to park my car.  The lady at the desk in the morning when I went down for breakfast seemed much friendlier and greeted me with a smile, as did the nice lady serving breakfast.  The guy from the afternoon before may not have gone to the same training.The room itself was typical SpringHill Suites - large, comfortable, clean, and relatively updated.  There was free wifi and the bed was relatively comfortable.  Good water pressure in the shower, and the breakfast was decent.  There are only a handful of parking spots in the parking lot in front of the hotel, but there is free parking in a small parking garage next to the hotel, though it's a short walk.  I didn't get a chance to explore the area much but it seems OK and I didn't feel unsafe in any way.In summary, I might consider trying this location again someday, but not before checking other alternatives.More</t>
   </si>
   <si>
+    <t>StarTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r477845155-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -428,6 +461,9 @@
     <t>I  arrived at the spring hill suites and the staff was very pleasant.  The hotel was very clean. There was a mini fridge and microwave which was very nice for our family trip. The breakfast was very yummy several choices. The hotel was very convenient lots of shopping and food close by. the pool was very clean is outside. The Jacuzzi was very nice to which is also outside, the workout room was very clean The ambiance was very family oriented.    We enjoyed are stay very much.More</t>
   </si>
   <si>
+    <t>survivor5804</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r477834719-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -443,6 +479,9 @@
     <t>Smells like smoke in the entrance. Some sort of bug in the bed. Blood stain on comforter. Dust. Stains/spills in the fridge. Lacks attention to detail. The maintenance person that came to the room to check the comforter was not happy to be there and not professional at all. He handed us the key cards to a new room, walked in,  pulled the comforter up, looked at it while rubbing the stain then took the comforter with him. Breakfast is the usual. Pool is small. Jacuzzi is OK. It does not get very warm. The enterance, if coming from the Vickery road side, is confusing. You must go past the enterance that is posted on the wall. Looks like you're passing the hotel. Small parking lot but you may park in the garage for free. UNFORTUNATELY TRIP ADVISOR APP WON'T ALLOW ME TO POST ANY PICS! Maybe a good thing considering they're all gross. More</t>
   </si>
   <si>
+    <t>Cindy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r470046105-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -470,6 +509,9 @@
     <t>This was a good choice for our spring break. We met our son's family to spend some time together. The hotel was good and affordable. Breakfast was pretty standard but ok. Everything seemed pretty clean. The ladies at the front desk were very friendly. The best part was the location. We took the littles to the Stockyard and the Zoo and the hotel was close to both.   Overall, our trip was a huge success and the hotel met our needs. More</t>
   </si>
   <si>
+    <t>NWNJSummit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r466179794-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -494,6 +536,9 @@
     <t>I called ahead, saying we were a family of three and would be using the pullout - they said that the linen would be in the closet but we would have to make the bed, fine, but of course there were no sheets - only a blanket and a pillow.  This was an inconvenience but the real problem were the bugs in the bathroom (the light fixture was full of black bugs) and then to top it off there were hairs on the supposedly clean towels. We will find an alternative next time!More</t>
   </si>
   <si>
+    <t>Thomas T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r455103087-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -521,6 +566,9 @@
     <t>The hotel is somewhat dated but that should be expected at this price point. I spent a week here and the breakfast menu doesn't change so prepare to get bored with that. The staff is excellent and very helpful. I have found that I can take two options: Rent a luxury hotel and go out less because the amenities pull you in or rent this type of hotel and be "encouraged" to go out more.More</t>
   </si>
   <si>
+    <t>Sted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r433727036-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -548,6 +596,9 @@
     <t>Stayed here one night last weekend while attending some parties in Fort Worth. The property is nice enough, but in a strange, not easy to get to location. The beds were a bit worn and squeaky, and the pillows were not very firm. The bathroom ammenities were limited (just soap, shampoo and conditioner...no body lotion or other items). Breakfast was very limited..eggs (or some egg-like substance), turkey Canadian bacon, waffles, cereal and some breads. Doubtful I'll stay here again next time when in Fort Worth. Just prefer a more comfortable hotel with more ammenities.More</t>
   </si>
   <si>
+    <t>t n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r431957986-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -564,6 +615,9 @@
   </si>
   <si>
     <t>August 2016</t>
+  </si>
+  <si>
+    <t>George P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r431571086-SpringHill_Suites-Fort_Worth_Texas.html</t>
@@ -594,6 +648,9 @@
 Their solution: we were able to leave our things in the original room while the hotel provided a suite on the second floor for us to sleep the rest of the night so we didn't have to lug our belongings to a new room in the middle of the night. The only problem with that was we were now just next to the freeway with the traffic noise we...The good: clean, close to TCU, easy to find, no train noise that has been reported at other nearby hotelsThe bad: we asked for a room on the top floor to avoid freeway traffic noise. When we checked in on the 4th floor, we noticed a regular rumbling sound but couldn't identify where it came from. Went out to dinner, came back, noise a little louder. Went to sleep, awoke about 11 pm with very loud rumbling sound apparently coming from the roof. Called the front desk, who told us they couldn't hear it. Explained that they couldn't her it because they were on the first floor while we were on the 4th (not too difficult to figure out). After 3 calls they sent someone up, and by that time the sound was not only evident in our room but in the hallway. Apparently we were the only ones on that wing. Maintenance said "yep that's pretty bad but we're not going up on the roof this time of night."Their solution: we were able to leave our things in the original room while the hotel provided a suite on the second floor for us to sleep the rest of the night so we didn't have to lug our belongings to a new room in the middle of the night. The only problem with that was we were now just next to the freeway with the traffic noise we were.trying to avoid. Not a restful night.Bottom line: we may try that hotel again, but will definitely make sure to report any issues at the beginning of our stayMore</t>
   </si>
   <si>
+    <t>stevetsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r428847434-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -618,6 +675,9 @@
     <t>Nice, clean place. Bed was very nice. Overall, very clean. Breakfast during the week was wonderful, weekend, just ok. Why no bananas over the weekend? Would have liked the option of having an upper room away from all of the train noise.More</t>
   </si>
   <si>
+    <t>Joe B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r423235820-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,6 +696,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Beth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r423007710-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +714,9 @@
     <t>I stayed here for 2 nights on a business trip. It's in a good location, near the highway but still quiet. The room was comfortable. The fitness center was decent and breakfast was good! All in all I was very pleased.</t>
   </si>
   <si>
+    <t>simms1929</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r413199057-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -666,6 +732,9 @@
     <t>I had a one-night business stay here. Front desk worker was kind enough to offer me some restaurant recommendations, and I went with the BBQ place just up the street. It's a great location in that it's close to downtown, but not in the heart of it, and it has plenty of restaurants nearby. The hotel was exactly what I needed for business - even printed a few items on the printer before heading to a meeting in the morning. Breakfast was just okay, nothing exceptional. Rooms were well kept and spacious - as suites should be.</t>
   </si>
   <si>
+    <t>The-Captain818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r413078188-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -678,6 +747,9 @@
     <t>It's what you expect and nothing disappointed me. It was nice they offered 3 newspapers too. The Fort Worth Telegram, the WSJ and USA Today were all free.The bed was comfortable. The room was quiet. The thermostat worked perfectly.</t>
   </si>
   <si>
+    <t>bn2001uk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r410720360-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +765,9 @@
     <t>Stayed over for a work trip. Nice friendly place. Wifi was free, staff couldn't do enough for you. Beds were comfortable and rooms were clean...can't ask for more than that really.Went to the Woodshed smokehouse on Sunday night - great music, food was plentiful and service was spot on. Highly recommended hotel.</t>
   </si>
   <si>
+    <t>SpagirlHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r384663871-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>Normally when I travel in Ft Worth, we stay in the downtown area which I like very much.  Because I needed to be closer to TCU I picked this hotel - I thought it had better reviews than the closer Marriott properties.  I have never had an issue in FW before so I did not think too much about where I stayed.  the cons:  the Wifi is so slow I ended up just draining my data, I didn't feel extremely safe traveling with all females, the rooms &amp; hallways kinda had a smell to them, and this was not a build from the ground up Springhill (I was hoping it was so the toilet and sink area would be separate from the shower area).  Also - I avoided other properties because reviews talked about the trains at night and I didn't see those reviews here.  Well..... I heard the trains.  On the positive side, the breakfast was better than most SS's and I did not encounter any customer service issues.  But I do not plan to stay here again.Downtown is 2 miles away so I might just play it safe next time.More</t>
   </si>
   <si>
+    <t>Cathy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r381045521-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -742,6 +820,9 @@
   </si>
   <si>
     <t>The a/c did not work in the room. The clerk at front desk seemed to care less.  I had to ask for fans at 3 am.  Front desk clerk  finally sent female security guard to  check to make sure we were operating it properly but she did not bring any fans with her.   We had to wait for her to go look for fans but came back with only one.  She admitted that there was a vacant room we could move to but the clerk wouldn't move us because the room had a reservation.   It was THREE A.M. and no one was in the room.  My youngest daughter was so hot that she vomited.   We got three hours sleep and had a 15 hour day ahead of us.More</t>
+  </si>
+  <si>
+    <t>tomuchtravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r379507267-SpringHill_Suites-Fort_Worth_Texas.html</t>
@@ -778,6 +859,9 @@
 I went to get our windows replaced. we came back to the hotel and francesca checked us out. I told her I refused to pay for a...stayed there as a "recommendation" from a horse show we were attending. We had stayed at this place a year ago, not to great and we didn't feel very safe. It's gone WAY DOWNHILL:francesa rediele who checked us in (while on the phone to her friend or someone she knew) booked us into a room that was already in use. So I go downstairs after waiting on a BROKEN elevator (didn't move) and she put us in another room that already had a guest as well.we moved to a new floor but the room didn't have any soap or shampoo. the next day, we came back to the room around lunchtime to change. we were in the room for a little while, came back and found both rear windows SMASHED.I talked to the very clueless and mean women at the front desk who said "ITS NOT OUR FAULT, THERE ARE A LOT OF HOMELESS PEOPLE IN THE AREA AND WE HAVE SIGNS WARNING YOU AS THIS HAPPENS A LOT." I was with my young daughter who was visibly shaken and I asked her to get us out of the room and book us elsewhere. She said "it's past check out time so you will be charged" and we were billed. I went to get our windows replaced. we came back to the hotel and francesca checked us out. I told her I refused to pay for a room in a hotel that i felt unsafe in. She refused to refund my money and handed me a card to call the manager "on monday". So I asked is there no one here that can refund me? she went off for 15 minutes, came back and said no. She said "her people" could not help me. I asked to speak to "her people" who was the event coordinator. Long story short, i did speak to her. she refunded (she said, lets see what me credit card says) my room for tonight.we went to the hilton garden which so far is steps ahead of that place.It's in an unsafe area and you pose the high probability of a break in. the rooms are old and tired and you don't !! want to be out and about at night around there.I am going to report this to marriott as well as any other site that cares. your hotel is a disgrace to the brandMore</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r373873021-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -796,6 +880,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Susan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r373868008-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -808,6 +895,9 @@
     <t>We have stayed at this hotel a number of times and always have had good service. The rooms are clean, there is a small fitness center and pool. They serve the usual free breakfast in a nice dining area. I suggest getting a room that is not on the highway side of the hotel as you do hear the traffic, especially at night.</t>
   </si>
   <si>
+    <t>Theresa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r373060585-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -826,6 +916,9 @@
     <t>We were here for the PSIA meet at TCU. We chose this hotel because of its close proximity to the University and good reviews. This is a great hotel. While there was noise from the highway, it was nothing that kept us awake at night. The breakfast was good. There was a good selection and was fresh. We had a king bed room. We noticed that the floor was not vacuumed well, and we alerted the front desk and it was taken care of. The linens on the bed were thin, but okay. Usual overly soft and flat pillows-but that is at every hotel. AC worked great! And it was quiet. We did not hear any noise in the halls or from the surrounding rooms. Shawntay was the front desk rep for the majority of our stay. She was wonderful!  Very sweet, took care of any requests we had (housekeeping issue). She has to be one of the nicest front desk reps we have ever met. Always greeted us with a smile, told us to have a great day, Etc. She really made our stay more enjoyable. Thank you!!! I would recommend this hotel and would definitely stay here again.  More</t>
   </si>
   <si>
+    <t>joec829</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r361609377-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -847,6 +940,9 @@
     <t>Stayed here this past Friday and Saturday night.  The room was great!  It was clean, everything in good working order, spacious, and most important to me, quiet!  The window unit fan ran continuously, yet it was unobtrusive and the white noise masked any and all noise that may have been there.  It can be shut off but I left it running. That makes for good sleeping!  There are also plenty of soft pillows.  I found the bed firm, yet comfy.My only disappointment was breakfast.  The marketing group definitely oversells this.  It's in line with any other standard breakfast found in hotels, but not the awesome dish claimed by marketing.  The front desk staff was always professional and helpful.  I also felt secure and safe here, both inside and out.  I recommend this facility.  Happy travels folks.More</t>
   </si>
   <si>
+    <t>Shelly L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r355158288-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -874,6 +970,9 @@
     <t>This is a nice hotel.  Checking in was easy but once I got to my room it was very warm.  Housekeeping was just down the hall and she came to help me with the air unit.  She called the front desk to let them know the unit needed needed maintenance.  About 10 minutes later someone else showed up, checked the unit, and said they would move me to another room.  I was promptly given another room within 45 minutes of arriving.  My room was a king suite which was clean and the bed was so comfortable!  The bathroom was oddly shaped so the toilet was extremely close to the tub leaving only a small area to exit the shower right in front of the toilet.  The hotel is set back at an awkward intersection which I missed at first.  It does have a parking garage which was a plus.  Walking to shops off university was difficult as we had to walk under the underpass on a real small curbed area.  Overall my experience was good.  The staff was very friendly, attentive and professional.  I would recommend this hotel to anyone seeking a hotel in close proximity to the University, zoo, cultural district, stockyards, downtown and the Watt arena all of which we found were easily driven to from this hotel.  More</t>
   </si>
   <si>
+    <t>Tanesha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r351718647-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1000,9 @@
     <t>My stay at this Marriott property was great. I recent had 2 surgeries and needed a quiet comfortable place to relax and rest before returning to work. Isabelle made my check in time quick and to the point. My room was close to the elevator so I didn't have to walk far. My room was spacious and the kitchenette was very nice. THE BEST PART OF MY STAY WAS THE BED!! Very comfortable and big. It didn,t take me long to fall asleep. A small nap turned into a 5 hour Super power nap. Overall the hotel is clean, quiet, family friendly, conveniently located by the freeway, restaurants, gas stations, and shopping centers. I'll stay here over and over again!! Yes the bed was that great!More</t>
   </si>
   <si>
+    <t>Diana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r346747472-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1018,9 @@
     <t>Very comfortable room and smooth checkin and checkout.  Front desk staff was very friendly.   It was clean and neat all over.Our stay was brief but we enjoyed the atmosphere.  We had stayed there before and had good experiences.</t>
   </si>
   <si>
+    <t>05superduty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r342712475-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1048,9 @@
     <t>stayed there a fews years ago while stock show was in town don't know what changed but just wasn't the same. one of the worst mattresses I've slept on. Breakfast was wasn't that good either everything had water in it eggs had water in pan, waffle maker had water in the cooker, ended up eating at jack in the box. overall wouldn't stay there again.More</t>
   </si>
   <si>
+    <t>Amy327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r333391894-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1069,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Stephen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r326322763-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1096,9 @@
     <t>I spent just one night at this hotel in October 2015 prior to my visit to the AAA Texas 500 NASCAR race.  Price was perfect, parking was free, and when booking, I felt the location would suit me perfectly.I arrived at 11.30am, but a room was available to me and I checked in.  Front desk (lady NASCAR fan, Shawntay) was amazing, and give me tips for visiting the city on the Saturday afternoon and ordered me a taxi which arrived promptly.  The hotel is not downtown, and a taxi is probably a good idea to get there as the walk would be best-part-of-an-hour.My room (430) was comfortable, spacious and everything worked.  Free coffee was provided, and the room has a refrigerator for milk, etc.Breakfast is included in the room rate and was plentiful, if a little basic.  I departed early on the Sunday for the race track (the race was an amazing experience).If my review has helped, please give me a "Helpful" vote - thank you.More</t>
   </si>
   <si>
+    <t>houstontiger60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r323756991-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1112,9 @@
   </si>
   <si>
     <t>A little hard to find but this hotel is clean and about half way between downtown and TCU.  We were on the first floor; the room had high ceilings, a king size bed and full size sofa sleeper.  Breakfast included.  Worth a repeat visit for business travelers.</t>
+  </si>
+  <si>
+    <t>1Ray</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r321247192-SpringHill_Suites-Fort_Worth_Texas.html</t>
@@ -1032,6 +1149,9 @@
 Parking is interesting - not enough around the hotel, however, you can park free in a parking structure across the parking lot with could be good...I had fourth floor facing south, the hostess changed me from second floor north facing at my request. The room was in good shape except the sink drained a bit slow. AC was a wall unit and quieter than many I have had to have. I was there for two nights, mostly for sleeping and had a good sleep. The shower and toilette were in a room separate from the sink alcove which was off the end of the bed, a separate sitting/work room just as you came in the door with a microwave and a small refrigerator.  The elevator (two of them) runs very slow.Can not address the reservations since i went through the Government DTS website but Marriott Rewards did confirm I had the room and input my reward number for me.All the staff were friendly, all had a smile and a hello, the desk counter was very helpful since I had not been there for 10 years and things had changed in the area.The breakfast was average for the Springhill Suite line, but I did get a good breakfast and was happy with it. (Hot beverages, juice dispenser, scrambled eggs, sausage patties then ham slices, biscuits and gravey, breads, some basic fruit, yogurt, milk, hot and cold cereals.) Parking is interesting - not enough around the hotel, however, you can park free in a parking structure across the parking lot with could be good for your car if a hail storm came through.The bad is that the new (to me) toll road has messed up the access in and out, but that can be worked around with with a bit of patience.Worth staying at if you are working/visiting in the south side of Fort Worth, the folks have pride in their place.More</t>
   </si>
   <si>
+    <t>Janicehayes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r308736938-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1179,9 @@
     <t>This was really a big roomy suite!  I had a nice lay over.  Front desk was great!  Room was clean!  Comfortable bed with lots of pillows!  AC was working great very hot weather in Fort Worth 100 degrees on Sept. 8th.   They have a delivery service to lots of restaurants in area that will delivery just about anything you could want, which was fantastic!  Had a really mic steak diner in my room.  More</t>
   </si>
   <si>
+    <t>justfine7890</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r296918091-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1209,9 @@
     <t>Overall good hotel. Rooms are spacious - love the seating and desk area and the fridge/kitchen area in the room. Very fair price! The boys loved the breakfast each morning. The pool was nice even though it was really small. It's not deeper than 5 feet but I don't know how to swim so that was ok for me. The kids loved it at night. The water fountain at the pool is broken so don't expect to get any water without bringing your own. So for the bad- a fire drill went off around 10:30pm one night. Everyone had to come out of their rooms and there wasn't good communication on what was happening and why. The power also went out one day. Therefore I got stuck in the parking garage. Good thing is it only lasted around 15-20 minutes. The hot water in the shower took a good while to get hot. I wasn't usually in a hurry so this was ok for me but if I had been this would have been an issue. More</t>
   </si>
   <si>
+    <t>Amber A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r290925207-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1239,9 @@
     <t>Maintenance switched out the frig 3 times. My child got sick with a virus while staying here and I contacted the front desk at 4am and asked them to please send someone to clean the room when the maid services came in. I called 4 more times the following day to say I needed to take my child to an urgent care facility but wanted to be in the room when they came to clean. Finally at 3pm they sent someone. They also let me know that 4 other people at the hotel had been sick with a virus and one lady went to the ER. First night here the Wifi wouldn't work. I call the front desk the following morning to say I need to work and couldn't connect. Two hours later a person from the Internet provider called me and walked me through the issue and assured me it would be working fine until I checked out. The following morning...no Internet... I go to the front desk and tell them..they hand me a print out saying the wifi was down in this zip code. NO ETA. Day 2 they say the Provider is working on it. Day 3 I tell them I need to work and need to know when it will be fixed...the front desk said a tech in coming out and they will call me when it's fixed. They tell me I will be receiving 3000...Maintenance switched out the frig 3 times. My child got sick with a virus while staying here and I contacted the front desk at 4am and asked them to please send someone to clean the room when the maid services came in. I called 4 more times the following day to say I needed to take my child to an urgent care facility but wanted to be in the room when they came to clean. Finally at 3pm they sent someone. They also let me know that 4 other people at the hotel had been sick with a virus and one lady went to the ER. First night here the Wifi wouldn't work. I call the front desk the following morning to say I need to work and couldn't connect. Two hours later a person from the Internet provider called me and walked me through the issue and assured me it would be working fine until I checked out. The following morning...no Internet... I go to the front desk and tell them..they hand me a print out saying the wifi was down in this zip code. NO ETA. Day 2 they say the Provider is working on it. Day 3 I tell them I need to work and need to know when it will be fixed...the front desk said a tech in coming out and they will call me when it's fixed. They tell me I will be receiving 3000 reward points for the inconvenience. Then offer to send me to a nearby hotel to use the Lobby Wifi so that I'm able to work. Seriously I thought the Internet was down in the whole ZIP CODE!!?? Did Laundry one night while staying and the machines did not even get the dirt off the clothes. The last night we went to the pool I called the Front Desk to tell them it was dark and none of the pool lights were on. They tell me an engineer will be there to check on it in few mins. 30 mins later the same guy they came to fix my frig time and time again showed up. After an hour the "Engineer" said everyone would need to get out because they were closing the pool due to electrical problems.More</t>
   </si>
   <si>
+    <t>Marlene D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r252453155-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1260,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Herb B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r251519467-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1278,9 @@
     <t>Easy check-in, friendly staff.  Room was clean and sizeable, especially for the price.  The best part was the bed...very comfortable.  The breakfast was good - nice variety of choices.  Easy parking and FREE!  Hotel is close to great parks, TCU, shopping and museums.</t>
   </si>
   <si>
+    <t>Rebecca S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r249919471-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1305,9 @@
     <t>This was a great hotel for what we needed. We stayed here during the National Championship game, so we could be away from the crowds and enjoy Fort Worth. The location is great! It's very close to downtown Forth Worth, so we were able to spend time in Sundance Square. We also enjoyed being close to the famous Stockyards in Forth Worth. The room was very comfortable. It did get a little loud with our room/window being right next to the highway, but not too bad. The room was very clean and we had a larger room, so we were really happy with the space. The staff was very nice and welcoming. The breakfast area was really nice and clean as well. Sometimes hotels let the breakfast space stay dirty until after service, but the staff here was always cleaning and making sure the food was filled. Also, the parking is fantastic! They have lots of spaces by the hotel and then a garage for overflow at no charge! We were excited about the free wi-fi too! We would stay here again when we return to Fort Worth.More</t>
   </si>
   <si>
+    <t>Martha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r243350809-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1335,9 @@
     <t>This is a great hotel, with a free, delicious breakfast with good variety choices.  The room was comfortable and clean.  It is very close to the Convention Center and where my daughter lives.  Will stay here again.More</t>
   </si>
   <si>
+    <t>Jack B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r238538473-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1356,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>SixAlpha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r235343546-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1386,9 @@
     <t>I spent several nights here for a conference and couldn't have been happier.  Their event specialist was great at making sure event attendees were taken care of and even provided a goody bag to everyone.  She made sure that I had the event rate for my entire stay, which was 1 day longer than most attendees.  She was great to talk with and very responsive to any request.  The front desk staff were awesome and enthusiastic, and were able to give me a room close to my coworkers when I requested it (even though it was not technically part of the block of rooms).  They were also right on the money with their restaurant recommendations and when we came back, remembered to ask how our dinner experience was.  She became our buddy for the remainder of our stay.  Even though the hotel is a bit of a challenge to get to due to road construction, I would recommend it.  My only regret is that it did not have a waffle maker, which is always a treat for me when I travel.  Despite that small thing, my stay was wonderful.  I highly recommend it!More</t>
   </si>
   <si>
+    <t>murphykcmo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r220366213-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1410,9 @@
     <t>I give all aspects of this hotel 5 stars except for the fact that there seemed to be a mold problem in the lobby, dining area and in our first floor room.  I can not speak about the other rooms or floors, but the mold smell was significant. I did not say anything or cause a fuss because, quite honestly, other than that, the hotel is perfect.  The hotel clerk was so kind and nice.  She was helpful, cheerful and smart.  The breakfast was hot and plentiful, the rooms were clean.  It is possible that this is a temporary problem and it may be corrected as I write this, but because I am sensitive to it, I felt like it was something that should mentioned.More</t>
   </si>
   <si>
+    <t>vacatime50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r218545738-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1440,9 @@
     <t>This place was just great. Super comfy beds, lots of room with the separate space for the pull out.  Lots of construction in the area so very tricky to find although it is just off the interstate so super handy.More</t>
   </si>
   <si>
+    <t>Practicaltraveler4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r217602814-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1458,9 @@
     <t>Spent one night here on business -- had planned on two, but the location was poor for us, so decided to move.  Someone else in our party made the reservation - and didn't pay attention to location.Depending on where you need to be in Ft. Worth, this could be a great position, but we found that it is sandwiched between train tracks and the freeway, and a major construction site.The suite room was very nice, staff friendly, and breakfast was above average.</t>
   </si>
   <si>
+    <t>noblehousecatering</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r207845976-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1479,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Emmie0404</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r205378375-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1500,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>NerdyGirl08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r203912362-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1530,9 @@
     <t>I stayed at this hotel since the usual hotels that I stay at were all booked during my trip dates.  Although there is a lot of construction right off of I-30 at the University exit, getting to the hotel is still pretty easy. I ended up in a first floor room, which wouldn't have been my first choice. The room seemed clean aside from the bathroom. There appeared to be tiny bits of vomit residue on one of the walls and door frame...Kinda gross, but it wasn't glaringly obvious at first glance. So I could maybe understand how housekeeping would've missed cleaning it...still gross though. The breakfast was sufficient &amp; the staff were friendly.  The location was great since it the highway runs along side the hotel &amp; was easily accessible. I wasn't bothered by highway noise at all.  The beds were ok...a bit stiff, but tolerable.  Overall, the hotel provided a decent stay, but definitely not my first or second choice.More</t>
   </si>
   <si>
+    <t>NGuardia73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r187574950-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1557,9 @@
     <t>I have stayed here before and it was a good location since we need to be close to TCU, unfortunately this time I was very disappointed. I am traveling with my kids and I reserved two rooms, I called a few weeks ago letting them know that I needed the two rooms next to each other and they said " that is no problem, I will make a note on your reservation " , I arrived today and found out the rooms are Not next to each other and the only response to my complain was: " I am sorry, that is all we can give you for the moment". I find that to be a poor response coming from a , what I thought was, serious hotel chain like Marriott. If I would have been told that my request was not possible due to high demand I would have made my decision if I wanted to book here anyway or not. I was told ok, I trusted  and then they did not care if they act accordingly to their word or not. So sad to see what has become of Marriott.More</t>
   </si>
   <si>
+    <t>R P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r185246647-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1587,9 @@
     <t>I stayed a couple of months ago, and it was for work purposes. The gentleman who checked me in was a great example of great customer service. I know the hotel staff was going through a housekeeping supervisor change and understand how some things can be left forgotten; however, if I was gven a chance to stay there free in the future, I wouldn't commit to it. Upon walking into the room, there was an ackwardly placed couch and laptop bench, seemed alright...I always book a two bed type room when staying in a hotel in case of housekeeping issues. Both of my beds not only had pubic hair in them but also looked well slept in. I only know what it looks like because I have been in housekeeping before. I slept in the pull out sofa instead of a nice comfy bed that night....a little frustrating...The tub had a stained clear curtain and tub itself was dirty and smelled of mildew...I refused to take a shower in...that should be checked daily and dryed off as often as it is used...Stepped on a sticker(may not have been housekeepings fault), Microwave was filthy before I even used it. It's sad for a property that is under 10 years old, to look like it was thirty years old because of lack of cleaniness. I did not complain to anyone, but I didn't have a terrific stay because of these issues...More</t>
   </si>
   <si>
+    <t>RockinMom13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r173267166-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1605,9 @@
     <t>As a frequent traveler, I've stayed in happier places!  The staff is great, the rooms were clean, but even with what looks like a retro fit, it still felt old, moldy and depressed.  There is a definite "old" smell right when you walk in.  The carpet was dark and smelled.  My room was dark and just didn't feel welcoming.Construction in the area is insane, but that its not the hotels fault, just a warning, allow yourself time to get here.</t>
   </si>
   <si>
+    <t>budgetworthy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r165715866-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1623,9 @@
     <t>Close to TCU...except for the construction:(. But that is beyond the hotel's hands.  Pool was very small and outdoors so our kidos were a bit disappointed.  Breakfast was good.  Parking was good.  Has all the basics.  Sufficient room for all 5 of us.</t>
   </si>
   <si>
+    <t>WiMomwithteens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r164805304-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1644,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>NesofOklahoma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r159253018-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1668,9 @@
     <t>My co-worked and I stayed for 3 nights to attend a conference at the Fort Worth Convention Center. It was about $100 less than hotels in walking distance to the center, but more convenient to excellent dining on Hulen. I recommend it if if you have a car since it was only about 7-10 minutes by the freeway. We did have to pay for parking everyday but there was $6 lot behind St. Patrick's Cathedral.We did not receive a room with 2 beds as asked but I was able to sleep on the pullout quite comfortably. With the room divided into a sleep and office area, it was almost like having 2 rooms, so it worked out. There was not a lot of noise. The parking garage was convenient. Breakfast was more than decent with yogurt, fresh fruit, juice, cereal, muffins, bagels, toast, waffles, eggs, and sausage or bacon available daily.More</t>
   </si>
   <si>
+    <t>Zamigaos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r154463760-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1692,9 @@
     <t>We were in town visiting colleges and booked this hotel because it was close to TCU.  I had requested a room on the top floor, away from the highway.  When we checked in, the desk person told me they did not have anything on the top floor - but did have 3rd floor on the back side.  And...it was fine.  Heard a bit of road noise and quite a few train whistles...but no hotel noise.  The rooms were clean and well appointed.  However, they had a very strange shape.  Just lots of odd angles which seemed to waste space - in my opinion.  There was a separate sink, microwave and fridge in the small living room along with a pull out sofa bed.  Then, the king bed was behind a sort of 3/4 wall for privacy.  It worked fine for the three of us.  The sink was in a separate area from the shower/toilet and that is handly if you have more than one adult trying to get ready in the morning.  Breakfast was your typical for this type of hotel. But, there were many options and the hotel person kept it filled at all times...even after a huge number of college golfers came through on their way to a tournament.  The Texas shaped waffle maker is a hoot!I would stay here again, if we were in town for a quick trip and not looking for luxury.More</t>
   </si>
   <si>
+    <t>macsteve1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r153148598-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1722,9 @@
     <t>Staff professional, friendly.  Room perfect, comfy.  Served breakfast starting ay 4:30 AM for Cow Town races, provided shuttle to the event.  Very happy with quality of hotel and enjoyed the stay.  Good parking in covered area of garage.  Convenient location for dining and events.More</t>
   </si>
   <si>
+    <t>ziggy3053</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r150840031-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1743,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>KidInfiniti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r150103457-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1764,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>tportillo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r140831289-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1788,9 @@
     <t>You won't find a better hotel in Ft. Worth for the price. I've stayed here twice and, each time, my room came with a nice comfortable bed, sofa, flat screen TV, microwave, and mini-fridge. Nicely decorated. TV swivels so you can watch it from the sofa or from the bed. Fridge is not cold enough to store milk, but you can use the ice bucket for that. It's enough to keep most other things. Generous breakfast (not gourmet but lots of cereals, scrambled eggs, some breads, fresh fruits, coffee, tea, milk) served from early to mid-morning in a spacious dining room with morning news on TV. You can eat down there or carry breakfast up to your room.  Complimentary newspapers (Wall St Journal, US Today, and local paper).  World's smallest pool so don't plan to actually swim (just wade) but there's a nice fitness room.  Great location. Five minutes to TCU. Ten minutes into downtown.  Clean and comfortable and a great staff.  Tiny shop on first floor if you need a snack, ice cream, or an aspirin. Traffic outside rooms on highway side of hotel can be a little noisy, especially on Frid and Sat nights. Free covered parking which is a huge plus in the summer time when it's over 100 degrees here.More</t>
   </si>
   <si>
+    <t>Sandy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r138460555-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1809,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>cheesycharlie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r130474958-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1830,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Pli876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r128305894-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1848,9 @@
     <t xml:space="preserve">Standard stay at a place like this.  Staff was nice.  No noise or cleanliness problems.  No issues and close to TCU stff and Ft Worth zoo.  </t>
   </si>
   <si>
+    <t>DallasMomDadKids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r127855534-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1872,9 @@
     <t>I had read the reviews before staying at this hotel, so I knew to stay on the side AWAY from the interstate.  I pre-paid on-line, but when I arrived, I was not booked into a 'non-interstate' room.  When I asked AGAIN (nicely), the desk clerk did get us a room away from the interstate.  Whew!  Anyway, we've had bigger suites, but for this price, this was a good value.  With breakfast included, our family of 5 did pretty well, price-wise.  There is a Mexican restaurant across the street that has been there forever, it's pretty good.  Also, there was some mention of the train that runs near the hotel -- it's not bad at all.  With the air conditioner running we barely were aware of it.More</t>
   </si>
   <si>
+    <t>Deb698</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r125790854-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1893,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>m12345678u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r124406326-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1914,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Maya D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r121816838-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1719,6 +1935,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Holly D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r116511795-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1740,6 +1959,9 @@
     <t>Really friendly, helpful staff!  This is always big in my eyes!  Room was very good size &amp; 3 of us were staying there for the Scentsy convention while in town and there was more than enough room to keep us from tripping on each other.  One complaint (if you can even classify this as a complaint) is that the handsoap bar they sitting out smells.  Oh and it would have been great if they'd of had a shuttle from the airport, but again not a huge deal!  We were just two minutes from the convention center &amp; had a rental car so it worked out great for us.  Oh &amp; you HAVE to go eat at the Mexican restaurant across the street!  It looks a little scary, but the food was SO GOOD &amp; the prices were great! I would reccommend this hotel to others.More</t>
   </si>
   <si>
+    <t>totosj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r83381311-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1758,6 +1980,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>ebtexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r53291378-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1776,6 +2001,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>eksdhs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r16906965-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1797,6 +2025,9 @@
     <t>We chose this hotel due to its proximity to TCU, but we were unaware of its closer proximity to the freeway and railroad tracks.  The hotel was clean and the staff friendly.  When we were assigned a 3rd floor room facing the freeway, I immediately was aware of the traffic noise and requested a room on the other side of the hotel.  They accommodated us and we were pleased until we discovered the toilet in the new room wouldn't flush.  As the maintenance staff was gone for the day, we agreed it might be best to change rooms once again.  Our 3rd room overlooked the parking lot and appeared to be quiet until the trains woke us up throughout the night.  The breakfast buffet offered a good variety.More</t>
   </si>
   <si>
+    <t>macfamilysanantonio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r15426724-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1818,6 +2049,9 @@
     <t>When I see "suites" I think of two rooms.  There was one room, and it was not at all like on the general Springhill Suites website whose pictures really implied two rooms, or at least one that was separated.  The "kitchen" consisted of a cheap formica counter with a microwave (paper plates stacked in side) and a one-cup coffee maker.  The sofabed was miserable--a thin mattress, lumpy, and when it was made out, you had to climb over the beds to get from one side of the room to another.  For the price ($279/night) it wasn't worth it.  They offered rollaway beds "if available," but when I called the front desk to ask about one (after having requested it on the reservation website) was told that they didn't have rollaway beds at this property.  Clean, very friendly staff, but not worth the price.More</t>
   </si>
   <si>
+    <t>BeenThere99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r11713869-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2070,9 @@
     <t>December 2007</t>
   </si>
   <si>
+    <t>EastCoastBrit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r3748361-SpringHill_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1855,6 +2092,9 @@
   </si>
   <si>
     <t>This hotel is fairly new.  We were inpressed with the room set up, we had two double beds and a pull out sofa bed, which was handy as we are a family of four.  There is a tiny kitchenettte with microwave, fridge, coffee maker and sink. The staff were helpful, friendly and courteous.  There is a free basic breakfast available.  The pool was small but we had it to ourselves during the day as the hotel is used mainly by business people.  There was a hot jacuzzi tub too. There was free high speed internet access in the room, also a computer was available for use in the main lobby.  We liked the location although it was next to the I30 you didn't hear anything.  Fort Worth Zoo was about 1 mile away which we highly recommend.  There was also an outside shopping mall within a ten minute walk or 2 min in the car.  The stockyards were within a 15 min drive, easy route just up University drive.If we were visiting the area again we would definitely consider staying at the Springhill suites again.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d320560-r3450456-SpringHill_Suites-Fort_Worth_Texas.html</t>
@@ -2374,43 +2614,47 @@
       <c r="A2" t="n">
         <v>52586</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177895</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2428,56 +2672,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52586</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2491,50 +2739,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52586</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>139572</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2552,50 +2804,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52586</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177897</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2609,50 +2865,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52586</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>122189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2670,56 +2930,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52586</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177898</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2739,50 +3003,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52586</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177899</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2798,56 +3066,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52586</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177900</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2865,56 +3137,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52586</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>18878</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2932,47 +3208,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52586</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177901</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -2989,56 +3269,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52586</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177902</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3056,56 +3340,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52586</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177903</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3117,56 +3405,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52586</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>22081</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3178,56 +3470,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52586</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177904</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3239,56 +3535,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52586</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>5653</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3306,56 +3606,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52586</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>108582</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3373,56 +3677,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52586</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>39989</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3440,50 +3748,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52586</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>10786</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3499,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52586</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177905</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3564,56 +3880,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52586</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>794</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3633,50 +3953,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52586</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>8416</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3690,50 +4014,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52586</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177906</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3753,50 +4081,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52586</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177907</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3816,50 +4148,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52586</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177908</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3879,50 +4215,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52586</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>118255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3940,56 +4280,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52586</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177909</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4001,56 +4345,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52586</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177910</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4068,56 +4416,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52586</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4135,50 +4487,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52586</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>8581</v>
+      </c>
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4198,50 +4554,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52586</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>29533</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4255,50 +4615,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52586</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177911</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4316,50 +4680,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52586</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>151473</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4371,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52586</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177912</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4438,56 +4810,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="X34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52586</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4507,50 +4883,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52586</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177913</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4568,56 +4948,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="X36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52586</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177914</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4637,50 +5021,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52586</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>54534</v>
+      </c>
+      <c r="C38" t="s">
+        <v>343</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4700,50 +5088,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52586</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>102563</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4761,50 +5153,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52586</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177915</v>
+      </c>
+      <c r="C40" t="s">
+        <v>358</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4820,56 +5216,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="X40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52586</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177916</v>
+      </c>
+      <c r="C41" t="s">
+        <v>367</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4881,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="X41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52586</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177917</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4942,56 +5346,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="X42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="Y42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52586</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>48811</v>
+      </c>
+      <c r="C43" t="s">
+        <v>387</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -5009,56 +5417,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52586</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>177918</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5078,50 +5490,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52586</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177919</v>
+      </c>
+      <c r="C45" t="s">
+        <v>404</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5139,50 +5555,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52586</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>2522</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5200,56 +5620,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="X46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52586</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>88400</v>
+      </c>
+      <c r="C47" t="s">
+        <v>419</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5267,56 +5691,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52586</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5330,50 +5758,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52586</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177920</v>
+      </c>
+      <c r="C49" t="s">
+        <v>436</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="J49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5389,56 +5821,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="X49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52586</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177921</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5458,50 +5894,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52586</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177922</v>
+      </c>
+      <c r="C51" t="s">
+        <v>454</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="J51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5517,56 +5957,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="X51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52586</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177923</v>
+      </c>
+      <c r="C52" t="s">
+        <v>464</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5586,50 +6030,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52586</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177924</v>
+      </c>
+      <c r="C53" t="s">
+        <v>470</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="O53" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5653,50 +6101,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52586</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177925</v>
+      </c>
+      <c r="C54" t="s">
+        <v>477</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="O54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5720,50 +6172,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52586</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>68445</v>
+      </c>
+      <c r="C55" t="s">
+        <v>484</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5775,47 +6231,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="X55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="Y55" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52586</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177926</v>
+      </c>
+      <c r="C56" t="s">
+        <v>494</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="J56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="K56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="L56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -5832,56 +6292,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="X56" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="Y56" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52586</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>3933</v>
+      </c>
+      <c r="C57" t="s">
+        <v>503</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="J57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="K57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5903,56 +6367,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="X57" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="Y57" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>52586</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177927</v>
+      </c>
+      <c r="C58" t="s">
+        <v>513</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="J58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="K58" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="L58" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5966,41 +6434,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52586</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177928</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
@@ -6029,50 +6501,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52586</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>177929</v>
+      </c>
+      <c r="C60" t="s">
+        <v>525</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="J60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="K60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="L60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6096,50 +6572,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52586</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177930</v>
+      </c>
+      <c r="C61" t="s">
+        <v>532</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="K61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="L61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="O61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6163,50 +6643,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>52586</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>144006</v>
+      </c>
+      <c r="C62" t="s">
+        <v>540</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="J62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="K62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="L62" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6230,50 +6714,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>52586</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177931</v>
+      </c>
+      <c r="C63" t="s">
+        <v>548</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="K63" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6285,56 +6773,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="X63" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="Y63" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>52586</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177932</v>
+      </c>
+      <c r="C64" t="s">
+        <v>558</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="J64" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="K64" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="L64" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6358,50 +6850,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>52586</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177933</v>
+      </c>
+      <c r="C65" t="s">
+        <v>565</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="J65" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="K65" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="L65" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6415,50 +6911,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>52586</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177934</v>
+      </c>
+      <c r="C66" t="s">
+        <v>572</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="J66" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="K66" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="L66" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O66" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6482,50 +6982,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>52586</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>13798</v>
+      </c>
+      <c r="C67" t="s">
+        <v>580</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="J67" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="K67" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="L67" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6549,50 +7053,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>52586</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177935</v>
+      </c>
+      <c r="C68" t="s">
+        <v>587</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="J68" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="K68" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="L68" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6616,41 +7124,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>52586</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>64746</v>
+      </c>
+      <c r="C69" t="s">
+        <v>594</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="J69" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="K69" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="L69" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
@@ -6669,50 +7181,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>52586</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177936</v>
+      </c>
+      <c r="C70" t="s">
+        <v>600</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="J70" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="K70" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="L70" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6736,50 +7252,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>52586</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177937</v>
+      </c>
+      <c r="C71" t="s">
+        <v>608</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="J71" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="K71" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="L71" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6803,50 +7323,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>52586</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>177938</v>
+      </c>
+      <c r="C72" t="s">
+        <v>615</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="J72" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
       <c r="K72" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="L72" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6870,50 +7394,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>52586</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177939</v>
+      </c>
+      <c r="C73" t="s">
+        <v>622</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="J73" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
       <c r="K73" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="L73" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6937,50 +7465,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>52586</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>21185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>629</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="J74" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="K74" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
       <c r="L74" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="O74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7000,50 +7532,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>52586</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177940</v>
+      </c>
+      <c r="C75" t="s">
+        <v>637</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="J75" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="K75" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="L75" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7067,50 +7603,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>52586</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177941</v>
+      </c>
+      <c r="C76" t="s">
+        <v>644</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="J76" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="K76" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="L76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7134,50 +7674,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>52586</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177942</v>
+      </c>
+      <c r="C77" t="s">
+        <v>651</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>652</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="J77" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="K77" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="L77" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7199,50 +7743,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>52586</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177943</v>
+      </c>
+      <c r="C78" t="s">
+        <v>659</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="J78" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="K78" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="L78" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="O78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7266,50 +7814,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>52586</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>81838</v>
+      </c>
+      <c r="C79" t="s">
+        <v>667</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="J79" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="K79" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="L79" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="O79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7331,50 +7883,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>52586</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177944</v>
+      </c>
+      <c r="C80" t="s">
+        <v>674</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="J80" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="K80" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="L80" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="O80" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7396,41 +7952,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>52586</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>682</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="J81" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="K81" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="L81" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -7457,7 +8017,7 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
